--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,211 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9796000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9614000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9218000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11137000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9614000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9562000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9193000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11014000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9676000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9589000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9104000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10893000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9205000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1964000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2048000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1957000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2063000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1976000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2001000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1953000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2173000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2881000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2843000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2777000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2442000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1885000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7832000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7566000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7261000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9074000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7638000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7561000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7240000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8841000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6795000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6746000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6327000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8451000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7320000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,52 +886,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1531000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1557000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1562000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1426000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1475000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1564000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1543000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1496000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1473000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1572000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1608000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1521000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,96 +978,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E14" s="3">
         <v>54000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>103000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>183000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>161000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>104000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>102000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>94000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>309000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>136000</v>
       </c>
       <c r="N14" s="3">
         <v>136000</v>
       </c>
       <c r="O14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="P14" s="3">
         <v>191000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E15" s="3">
         <v>407000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>414000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>424000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>407000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>424000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>434000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>415000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>394000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>411000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>441000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>397000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1064,96 +1090,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6268000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6431000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6341000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6880000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6215000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6461000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6415000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6853000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6550000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6355000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6819000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6246000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3528000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3183000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2877000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4257000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3399000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3101000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2778000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4161000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3315000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3039000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2749000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4074000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2959000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1170,228 +1203,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>92000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>99000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>134000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>198000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>192000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>291000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>294000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>409000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>262000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>220000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>168000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>189000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4280000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4023000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3726000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5145000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4338000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3997000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3789000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5157000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4423000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3989000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3665000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4961000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3804000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E22" s="3">
         <v>465000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>494000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>525000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>509000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>519000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>529000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>548000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>533000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>475000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>469000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>481000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>450000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3076000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2810000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2482000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3866000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3088000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2774000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2540000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3907000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3191000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2826000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3761000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2698000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E24" s="3">
         <v>499000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>345000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>126000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>579000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>441000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>428000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>632000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>367000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>612000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>356000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>529000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>459000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1434,96 +1483,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2311000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2137000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3740000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2509000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2333000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2112000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3275000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2824000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2214000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2144000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3232000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2239000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2311000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2137000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3740000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2509000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2333000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2112000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3275000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2824000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2214000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2144000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3232000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2239000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1566,8 +1624,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1581,28 +1642,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>236000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>153000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1610,8 +1671,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1654,8 +1718,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1698,96 +1765,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-92000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-99000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-134000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-198000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-192000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-291000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-294000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-409000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-262000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-220000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-168000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-189000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2311000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2137000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3740000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2745000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2333000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2265000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2214000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2144000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3232000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2239000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1830,101 +1906,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2311000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2137000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3740000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2745000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2333000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2265000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2214000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2144000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3232000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2239000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1941,8 +2026,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1959,140 +2045,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23829000</v>
+      </c>
+      <c r="E41" s="3">
         <v>24540000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31083000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20514000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14720000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10824000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18455000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21620000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19487000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21310000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21321000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21784000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19748000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2029000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2904000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4621000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17313000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25310000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>38567000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>41639000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45641000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50968000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50270000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45576000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>44294000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>39604000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4162000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4050000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3820000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5910000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3993000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3975000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3729000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5938000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3902000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3798000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3591000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5300000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3721000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2102,11 +2198,11 @@
       <c r="E44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="3">
         <v>320000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>24</v>
@@ -2114,117 +2210,126 @@
       <c r="I44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="3">
         <v>398000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>496000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>436000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>312000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>391000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3422000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3046000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2860000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2329000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3594000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3572000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3186000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5986000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2879000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2731000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2535000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2837000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2547000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33442000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34540000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42384000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46386000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47617000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>56938000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67009000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76159000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>77732000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78545000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73335000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74515000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>66011000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2267,96 +2372,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8048000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8170000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8264000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6252000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6197000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6003000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5918000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5897000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5904000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5868000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5586000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5315000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5070000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47869000</v>
+      </c>
+      <c r="E49" s="3">
         <v>48302000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48594000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>49058000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>49454000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49881000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>49997000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>50425000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49365000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49758000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50206000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50724000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50292000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2399,8 +2513,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2443,52 +2560,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7345000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7431000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6987000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7013000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6170000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5496000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5434000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5370000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5200000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4591000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4470000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4437000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4009000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2531,52 +2654,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96704000</v>
+      </c>
+      <c r="E54" s="3">
         <v>98443000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106229000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108709000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109438000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118318000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128358000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137851000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138201000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138762000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133597000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134991000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>125382000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2593,8 +2722,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2611,272 +2741,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E57" s="3">
         <v>534000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>486000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>580000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>603000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>587000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>527000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>529000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>603000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>554000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>593000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>599000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>481000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2355000</v>
+      </c>
+      <c r="E58" s="3">
         <v>999000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3748000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4494000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4487000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6477000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4491000</v>
       </c>
       <c r="K58" s="3">
         <v>4491000</v>
       </c>
       <c r="L58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="M58" s="3">
         <v>2499000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4998000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9797000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3498000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12852000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13059000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14641000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13556000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12896000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13251000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15292000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14104000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12874000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12441000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14635000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13782000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11811000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15740000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14592000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18875000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18630000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17986000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20315000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19562000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19124000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17968000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15494000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20226000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24178000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15790000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49299000</v>
+      </c>
+      <c r="E61" s="3">
         <v>50643000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50684000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51656000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51672000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51561000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>54386000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>56128000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>55145000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>57119000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47355000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47132000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49518000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16784000</v>
+      </c>
+      <c r="E62" s="3">
         <v>17023000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17651000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16060000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15542000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15387000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15846000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15726000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16816000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9849000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9650000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9435000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9051000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2919,8 +3068,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2963,8 +3115,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3007,52 +3162,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82469000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82880000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87796000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>86924000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>85724000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>87746000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90291000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91479000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90412000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82894000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77638000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81131000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74767000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3069,8 +3230,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3113,8 +3275,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3157,8 +3322,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3201,8 +3369,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3245,52 +3416,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10771000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12022000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19111000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20037000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28296000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28586000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27598000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25576000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3333,8 +3510,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3377,8 +3557,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3421,52 +3604,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14235000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15563000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18433000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21785000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23714000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30572000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38067000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46372000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47789000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55868000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55959000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53860000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50615000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3509,101 +3698,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2311000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2137000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3740000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2745000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2333000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2265000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2214000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2144000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3232000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2239000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3620,8 +3818,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3629,43 +3828,46 @@
         <v>748000</v>
       </c>
       <c r="E83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="F83" s="3">
         <v>750000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>754000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>741000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>704000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>720000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>702000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>699000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>688000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>696000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>719000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>656000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3708,8 +3910,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3752,8 +3957,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3796,8 +4004,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3840,8 +4051,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3884,52 +4098,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3012000</v>
+      </c>
+      <c r="E89" s="3">
         <v>513000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6000000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4422000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2861000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>546000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6722000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4660000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3310000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>850000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6566000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4466000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2699000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3946,52 +4166,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-349000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-386000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-413000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-443000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-421000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-383000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-378000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-286000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-599000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-473000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-525000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-440000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4034,8 +4258,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4078,52 +4305,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1233000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12386000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7906000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13199000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1920000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3532000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3160000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-728000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4140,52 +4373,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-768000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-767000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-795000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-806000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-670000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-714000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-742000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-778000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-783000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-791000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-788000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-787000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-612000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4228,8 +4465,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4272,8 +4512,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4316,136 +4559,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4169000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4938000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3287000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-940000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-73000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>75000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-74000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-86000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-228000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>144000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-89000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>230000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>129000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>125000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-711000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10569000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5794000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3896000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2133000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-463000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2036000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1156000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,224 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10439000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9796000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9614000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9218000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11137000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9614000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9562000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9193000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11014000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9676000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9589000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9104000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10893000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9205000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1969000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1964000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2048000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1957000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2063000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1976000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2001000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1953000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2173000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2881000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2843000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2777000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2442000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1885000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8470000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7832000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7566000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7261000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9074000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7638000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7561000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7240000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8841000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6795000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6746000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6327000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8451000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7320000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,55 +900,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1531000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1557000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1562000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1426000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1475000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1564000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1543000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1496000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1473000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1572000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1608000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1521000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,102 +998,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E14" s="3">
         <v>67000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>54000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>103000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>183000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>161000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>104000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>102000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>94000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>309000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>136000</v>
       </c>
       <c r="O14" s="3">
         <v>136000</v>
       </c>
       <c r="P14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>191000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E15" s="3">
         <v>400000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>407000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>414000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>424000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>407000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>424000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>434000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>415000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>394000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>411000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>441000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>397000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1091,102 +1117,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6131000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6268000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6431000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6341000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6880000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6215000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6461000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6415000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6853000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6550000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6355000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6819000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6246000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4308000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3528000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3183000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2877000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4257000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3399000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3101000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2778000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4161000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3315000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3039000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2749000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4074000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2959000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1204,243 +1237,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>92000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>99000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>134000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>198000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>192000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>291000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>294000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>409000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>262000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>220000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>168000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>189000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4997000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4280000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4023000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3726000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5145000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4338000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3997000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3789000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5157000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4423000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3989000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3665000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4961000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3804000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E22" s="3">
         <v>456000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>465000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>494000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>525000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>509000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>519000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>529000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>548000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>533000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>475000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>469000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>481000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>450000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3696000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3076000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2810000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2482000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3866000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3088000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2774000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2540000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3907000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3191000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2826000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3761000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2698000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E24" s="3">
         <v>505000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>499000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>345000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>126000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>579000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>441000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>428000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>632000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>367000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>612000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>356000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>529000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>459000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1486,102 +1535,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2571000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2311000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2137000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3740000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2509000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2333000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2112000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3275000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2824000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2214000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2144000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3232000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2571000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2311000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2137000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3740000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2509000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2333000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2112000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3275000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2824000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2214000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2144000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3232000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1627,8 +1685,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1645,28 +1706,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>236000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>153000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1674,8 +1735,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1721,8 +1785,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,102 +1835,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-92000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-99000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-134000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-198000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-192000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-291000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-294000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-409000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-262000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-220000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-168000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-189000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2571000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2311000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2137000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3740000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2745000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2333000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2265000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3276000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2214000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2144000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3232000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1909,107 +1985,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2571000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2311000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2137000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3740000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2745000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2333000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2265000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3276000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2214000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2144000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3232000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,8 +2112,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2046,154 +2132,164 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37239000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23829000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24540000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31083000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20514000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14720000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10824000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18455000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21620000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19487000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21310000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21321000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21784000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19748000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5818000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2029000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2904000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4621000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17313000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25310000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38567000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>41639000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45641000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50968000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50270000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>45576000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>44294000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>39604000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6329000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4162000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4050000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3820000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5910000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3993000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3975000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3729000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5938000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3902000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3798000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3591000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5300000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3721000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
+      <c r="D44" s="3">
+        <v>211000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>24</v>
@@ -2201,11 +2297,11 @@
       <c r="F44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="3">
         <v>320000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
@@ -2213,123 +2309,132 @@
       <c r="J44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3">
         <v>398000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>496000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>436000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>312000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>391000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2543000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3422000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3046000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2860000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2329000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3594000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3572000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3186000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5986000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2879000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2731000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2535000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2837000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2547000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52140000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33442000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34540000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42384000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46386000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>47617000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>56938000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>67009000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76159000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>77732000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78545000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73335000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>74515000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>66011000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2375,102 +2480,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9044000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8048000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8170000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8264000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6252000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6197000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6003000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5918000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5897000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5904000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5868000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5586000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5315000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5070000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47507000</v>
+      </c>
+      <c r="E49" s="3">
         <v>47869000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48302000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48594000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>49058000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49454000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>49881000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>49997000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50425000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49365000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49758000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50206000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50724000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50292000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2516,8 +2630,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2563,55 +2680,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6747000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7345000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7431000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6987000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7013000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6170000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5496000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5434000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5370000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5200000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4591000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4470000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4437000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4009000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2657,55 +2780,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115438000</v>
+      </c>
+      <c r="E54" s="3">
         <v>96704000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98443000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106229000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108709000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109438000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118318000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>128358000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137851000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138201000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138762000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133597000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134991000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>125382000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2723,8 +2852,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2742,290 +2872,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E57" s="3">
         <v>533000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>534000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>486000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>580000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>603000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>587000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>527000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>529000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>603000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>554000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>593000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>599000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>481000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2355000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>999000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3748000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4494000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4487000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6477000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4491000</v>
       </c>
       <c r="L58" s="3">
         <v>4491000</v>
       </c>
       <c r="M58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="N58" s="3">
         <v>2499000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4998000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9797000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3498000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14192000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12852000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13059000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14641000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13556000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12896000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13251000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15292000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14104000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12874000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12441000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14635000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13782000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11811000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17200000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15740000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14592000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18875000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18630000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17986000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20315000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19562000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19124000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17968000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15494000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20226000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24178000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15790000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>69209000</v>
+      </c>
+      <c r="E61" s="3">
         <v>49299000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50643000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50684000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51656000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51672000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>51561000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>54386000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56128000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>55145000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>57119000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47355000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47132000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49518000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16312000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16784000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17023000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17651000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16060000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15542000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15387000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15846000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15726000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16816000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9849000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9650000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9435000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9051000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3071,8 +3220,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3118,8 +3270,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3165,55 +3320,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103364000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82469000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82880000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87796000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>86924000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>85724000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>87746000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90291000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91479000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90412000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82894000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77638000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81131000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74767000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3231,8 +3392,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3278,8 +3440,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3325,8 +3490,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3372,8 +3540,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3419,55 +3590,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12696000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12022000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19111000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20037000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28296000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28586000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27598000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25576000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3513,8 +3690,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3560,8 +3740,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3607,55 +3790,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12074000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14235000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15563000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18433000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21785000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23714000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30572000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38067000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46372000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47789000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55868000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55959000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53860000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50615000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3701,107 +3890,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2571000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2311000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2137000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3740000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2745000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2333000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2265000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3276000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2214000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2144000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3232000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2239000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3819,55 +4017,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>748000</v>
+        <v>722000</v>
       </c>
       <c r="E83" s="3">
         <v>748000</v>
       </c>
       <c r="F83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="G83" s="3">
         <v>750000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>754000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>741000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>704000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>720000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>702000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>699000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>688000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>696000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>719000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>656000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3913,8 +4115,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3960,8 +4165,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4007,8 +4215,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4054,8 +4265,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4101,55 +4315,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3614000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3012000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>513000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6000000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4422000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2861000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>546000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6722000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4660000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3310000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>850000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6566000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4466000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2699000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4167,55 +4387,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-396000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-349000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-386000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-413000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-443000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-421000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-383000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-378000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-286000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-599000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-473000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-525000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-440000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4261,8 +4485,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4308,55 +4535,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4256000</v>
+      </c>
+      <c r="E94" s="3">
         <v>480000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1233000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12386000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7906000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13199000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1920000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3532000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3160000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-728000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4374,55 +4607,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-740000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-768000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-767000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-795000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-806000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-670000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-714000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-742000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-778000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-783000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-791000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-788000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-787000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-612000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4468,8 +4705,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4515,8 +4755,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4562,145 +4805,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14133000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4938000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3287000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-940000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-73000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>75000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-74000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-86000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-228000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>144000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-89000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>230000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>129000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>125000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13410000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-711000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10569000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5794000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3896000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2133000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-463000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2036000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,224 +665,236 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9367000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10439000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9796000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9614000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9218000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11137000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9614000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9562000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9193000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11014000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9676000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9589000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9104000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10893000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9205000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1880000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1969000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1964000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2048000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1957000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2063000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1976000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2001000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1953000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2173000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2881000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2843000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2777000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2442000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1885000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7487000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8470000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7832000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7566000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7261000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9074000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7638000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7561000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7240000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8841000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6795000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6746000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6327000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8451000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7320000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,58 +913,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1479000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1531000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1557000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1562000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1426000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1475000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1564000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1543000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1496000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1473000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1572000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1608000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1521000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1001,108 +1017,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E14" s="3">
         <v>81000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>67000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>54000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>103000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>183000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>161000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>104000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>102000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>94000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>309000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>136000</v>
       </c>
       <c r="P14" s="3">
         <v>136000</v>
       </c>
       <c r="Q14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="R14" s="3">
         <v>191000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E15" s="3">
         <v>365000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>407000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>414000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>424000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>407000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>424000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>434000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>415000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>394000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>411000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>441000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>397000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1118,108 +1143,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6156000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6131000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6268000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6431000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6341000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6880000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6215000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6461000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6415000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6853000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6361000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6550000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6355000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6819000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6246000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3211000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4308000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3528000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3183000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2877000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4257000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3399000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3101000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2778000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4161000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3315000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3039000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2749000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4074000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2959000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1238,258 +1270,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>92000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>99000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>134000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>198000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>192000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>291000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>294000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>409000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>262000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>220000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>168000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>189000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3910000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4997000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4280000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4023000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3726000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5145000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4338000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3997000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3789000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5157000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4423000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3989000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3665000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4961000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3804000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E22" s="3">
         <v>579000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>456000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>465000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>494000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>525000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>509000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>519000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>529000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>548000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>533000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>475000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>469000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>481000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>450000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2595000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3696000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3076000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2810000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2482000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3866000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3088000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2774000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2540000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3907000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3191000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2826000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3761000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2698000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E24" s="3">
         <v>580000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>505000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>499000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>345000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>126000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>579000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>441000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>428000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>632000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>367000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>612000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>356000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>529000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>459000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1538,108 +1586,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3116000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2571000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2311000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2137000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3740000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2509000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2333000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2112000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3275000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2824000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2214000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2144000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2239000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3116000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2571000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2311000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2137000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3740000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2509000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2333000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2112000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3275000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2824000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2214000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2144000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2239000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1688,13 +1745,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1709,28 +1769,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>236000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>153000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1738,8 +1798,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1788,8 +1851,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1838,108 +1904,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>33000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-92000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-99000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-134000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-198000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-192000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-291000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-294000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-409000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-262000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-220000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-189000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3116000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2571000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2311000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2137000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3740000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2745000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2333000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2265000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3276000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2214000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2144000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2239000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1988,113 +2063,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3116000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2571000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2311000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2137000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3740000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2745000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2333000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2265000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3276000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2214000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2144000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2239000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2113,8 +2197,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2133,166 +2218,176 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27276000</v>
+      </c>
+      <c r="E41" s="3">
         <v>37239000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23829000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24540000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31083000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20514000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14720000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10824000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18455000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21620000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19487000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21310000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21321000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21784000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19748000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15003000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5818000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2029000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2904000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4621000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17313000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25310000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38567000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>41639000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45641000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50968000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50270000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>45576000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44294000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39604000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4576000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6329000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4162000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4050000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3820000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5910000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3993000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3975000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3729000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5938000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3902000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3798000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3591000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5300000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3721000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3">
         <v>211000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>24</v>
@@ -2300,11 +2395,11 @@
       <c r="G44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="3">
         <v>320000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>24</v>
@@ -2312,129 +2407,138 @@
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="3">
         <v>398000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>496000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>436000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>312000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>391000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3084000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2543000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3422000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3046000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2860000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2329000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3594000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3572000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3186000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5986000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2879000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2731000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2535000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2837000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2547000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49939000</v>
+      </c>
+      <c r="E46" s="3">
         <v>52140000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33442000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34540000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42384000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46386000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47617000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56938000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67009000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76159000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>77732000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78545000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73335000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>74515000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>66011000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2483,108 +2587,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6401000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9044000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8048000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8170000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8264000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6252000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6197000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6003000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5918000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5897000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5904000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5868000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5586000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5315000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5070000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47272000</v>
+      </c>
+      <c r="E49" s="3">
         <v>47507000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47869000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48302000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>48594000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49058000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>49454000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>49881000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49997000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50425000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49365000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49758000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50206000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50724000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>50292000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2633,8 +2746,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2683,58 +2799,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9934000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6747000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7345000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7431000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6987000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7013000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6170000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5496000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5434000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5370000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5200000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4591000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4470000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4437000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4009000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2783,58 +2905,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113546000</v>
+      </c>
+      <c r="E54" s="3">
         <v>115438000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96704000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98443000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106229000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108709000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109438000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118318000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128358000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137851000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138201000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138762000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133597000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134991000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>125382000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2853,8 +2981,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2873,308 +3002,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E57" s="3">
         <v>637000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>533000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>534000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>486000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>580000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>603000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>587000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>527000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>529000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>603000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>554000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>593000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>599000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>481000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2997000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2371000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2355000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>999000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3748000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4494000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4487000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6477000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4491000</v>
       </c>
       <c r="M58" s="3">
         <v>4491000</v>
       </c>
       <c r="N58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="O58" s="3">
         <v>2499000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4998000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9797000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3498000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15217000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14192000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12852000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13059000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14641000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13556000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12896000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13251000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15292000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14104000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12874000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12441000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14635000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13782000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11811000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18748000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17200000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15740000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14592000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18875000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18630000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17986000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20315000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19562000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19124000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17968000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15494000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20226000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24178000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15790000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>67769000</v>
+      </c>
+      <c r="E61" s="3">
         <v>69209000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49299000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50643000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50684000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51656000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>51672000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>51561000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54386000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56128000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55145000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>57119000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47355000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>47132000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49518000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16889000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16312000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16784000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17023000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17651000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16060000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15542000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15387000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15846000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15726000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16816000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9849000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9650000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9435000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9051000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3223,8 +3371,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3273,8 +3424,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3323,58 +3477,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104055000</v>
+      </c>
+      <c r="E66" s="3">
         <v>103364000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82469000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82880000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87796000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>86924000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>85724000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87746000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90291000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91479000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90412000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82894000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77638000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81131000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74767000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3393,8 +3553,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3443,8 +3604,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3493,8 +3657,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3543,8 +3710,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3593,58 +3763,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15410000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12022000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19111000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20037000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28296000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28586000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27598000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25576000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3693,8 +3869,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3743,8 +3922,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3793,58 +3975,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9491000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12074000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14235000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15563000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18433000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21785000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23714000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30572000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38067000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46372000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47789000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55868000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55959000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53860000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50615000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3893,113 +4081,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3116000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2571000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2311000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2137000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3740000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2745000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2333000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2265000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3276000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2214000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2144000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3232000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2239000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4018,58 +4215,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>701000</v>
+      </c>
+      <c r="E83" s="3">
         <v>722000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>748000</v>
       </c>
       <c r="F83" s="3">
         <v>748000</v>
       </c>
       <c r="G83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="H83" s="3">
         <v>750000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>754000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>741000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>704000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>720000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>702000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>699000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>688000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>696000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>719000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>656000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4118,8 +4319,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4168,8 +4372,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4218,8 +4425,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4268,8 +4478,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4318,58 +4531,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5953000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3614000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3012000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>513000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6000000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4422000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2861000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>546000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6722000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4660000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3310000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>850000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6566000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4466000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2699000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4388,58 +4607,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-436000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-433000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-396000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-349000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-386000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-413000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-443000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-421000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-383000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-378000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-286000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-599000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-473000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-525000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-440000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4488,8 +4711,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4538,58 +4764,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9655000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>480000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1233000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12386000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7906000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13199000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1920000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3532000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3160000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-728000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4608,58 +4840,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-730000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-740000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-768000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-767000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-795000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-806000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-670000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-714000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-742000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-778000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-783000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-791000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-788000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-787000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-612000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4708,8 +4944,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4758,8 +4997,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4808,154 +5050,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6493000</v>
+      </c>
+      <c r="E100" s="3">
         <v>14133000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4938000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3287000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-940000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-81000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-73000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>75000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-74000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-86000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-228000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>144000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-89000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>230000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>129000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>125000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9963000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13410000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-711000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10569000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5794000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3896000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2133000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-463000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2036000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1156000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,236 +665,260 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10085000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9800000</v>
+      </c>
+      <c r="F8" s="3">
         <v>9367000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10439000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9796000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9614000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9218000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11137000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9614000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9562000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9193000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11014000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9676000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9589000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9104000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10893000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9205000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1880000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1969000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1964000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2048000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1957000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2063000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1976000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2001000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1953000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2173000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2881000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2843000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2777000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2442000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1885000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8170000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7861000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7487000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8470000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7832000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7566000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7261000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>9074000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7638000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7561000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7240000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8841000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6795000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6746000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6327000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8451000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7320000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,61 +938,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1928000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1589000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1479000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1500000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1531000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1557000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1562000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1426000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1475000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1564000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1543000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1496000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1473000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1572000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1608000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1521000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1020,114 +1052,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F14" s="3">
         <v>193000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>81000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>67000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>54000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>103000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>183000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>39000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>161000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>104000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>102000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>94000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>309000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>136000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>136000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>191000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E15" s="3">
         <v>345000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="G15" s="3">
         <v>365000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>400000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>407000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>414000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>424000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>407000</v>
       </c>
       <c r="K15" s="3">
         <v>424000</v>
       </c>
       <c r="L15" s="3">
+        <v>407000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>424000</v>
+      </c>
+      <c r="N15" s="3">
         <v>434000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>415000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>394000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>400000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>411000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>441000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>397000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1144,114 +1194,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6207000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6217000</v>
+      </c>
+      <c r="F17" s="3">
         <v>6156000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6131000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6268000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6431000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6341000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6880000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6215000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6461000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6415000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6853000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6550000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6355000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6819000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6246000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3878000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3583000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3211000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4308000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3528000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3183000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2877000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4257000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3399000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3101000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2778000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4161000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3315000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3039000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2749000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4074000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2959000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,273 +1335,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-33000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>92000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>99000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>134000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>198000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>192000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>291000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>294000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>409000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>262000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>220000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>168000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>189000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4593000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4303000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3910000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4997000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4280000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4023000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3726000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5145000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4338000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3997000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3789000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5157000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4423000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3989000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3665000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4961000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3804000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600000</v>
+      </c>
+      <c r="F22" s="3">
         <v>614000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>579000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>456000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>465000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>494000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>525000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>509000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>519000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>529000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>548000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>533000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>475000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>469000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>481000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>450000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3276000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2972000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2595000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3696000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3076000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2810000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2482000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3866000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3088000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2774000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2540000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3907000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3191000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2826000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2500000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3761000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2698000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1745000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>530000</v>
+      </c>
+      <c r="F24" s="3">
         <v>344000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>580000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>505000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>499000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>345000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>126000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>579000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>441000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>428000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>632000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>367000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>612000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>356000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>529000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>459000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1589,114 +1685,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2251000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3116000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2571000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2311000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2137000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3740000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2509000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2333000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2112000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3275000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2824000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2214000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2144000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3232000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2239000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2251000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3116000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2571000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2311000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2137000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3740000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2509000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2333000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2112000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3275000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2824000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2214000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2144000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3232000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2239000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1748,19 +1862,25 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1772,37 +1892,43 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>236000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>153000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-6871000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1854,8 +1980,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1907,114 +2039,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>33000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-92000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-99000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-134000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-198000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-192000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-291000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-294000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-409000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-262000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-168000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-189000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2251000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3116000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2571000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2311000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2137000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3740000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2745000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2333000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2265000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3276000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2214000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2144000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3232000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2239000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2066,119 +2216,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2251000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3116000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2571000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2311000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2137000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3740000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2745000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2333000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2265000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3276000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2214000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2144000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3232000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2239000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2198,8 +2366,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2219,326 +2389,364 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22321000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>28001000</v>
+      </c>
+      <c r="F41" s="3">
         <v>27276000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>37239000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23829000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24540000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>31083000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20514000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14720000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10824000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18455000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21620000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19487000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21310000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>21321000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>21784000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>19748000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13543000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10592000</v>
+      </c>
+      <c r="F42" s="3">
         <v>15003000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5818000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2029000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2904000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>4621000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>17313000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>25310000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>38567000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>41639000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>45641000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>50968000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>50270000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>45576000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>44294000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>39604000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4637000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4423000</v>
+      </c>
+      <c r="F43" s="3">
         <v>4576000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6329000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4162000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4050000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3820000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5910000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3993000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3975000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3729000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5938000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3902000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3798000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3591000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>5300000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3721000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="3">
-        <v>211000</v>
+      <c r="E44" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>24</v>
+      <c r="G44" s="3">
+        <v>211000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="3">
-        <v>320000</v>
+      <c r="I44" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>24</v>
+      <c r="K44" s="3">
+        <v>320000</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="3">
         <v>398000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>496000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>436000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>312000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>300000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>391000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3243000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3235000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3084000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2543000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3422000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3046000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2860000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2329000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3594000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3572000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3186000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5986000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2879000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2731000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2535000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2837000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2547000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43744000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46251000</v>
+      </c>
+      <c r="F46" s="3">
         <v>49939000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>52140000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>33442000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>34540000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>42384000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>46386000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>47617000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>56938000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>67009000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>76159000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>77732000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>78545000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>73335000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>74515000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>66011000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2590,114 +2798,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6816000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6627000</v>
+      </c>
+      <c r="F48" s="3">
         <v>6401000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9044000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8048000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8170000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8264000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6252000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6197000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6003000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5918000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5897000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5904000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5868000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5586000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5315000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5070000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46708000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>46938000</v>
+      </c>
+      <c r="F49" s="3">
         <v>47272000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>47507000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>47869000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>48302000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>48594000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>49058000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>49454000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>49881000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>49997000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>50425000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>49365000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>49758000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>50206000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>50724000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>50292000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2749,8 +2975,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2802,61 +3034,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20841000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10198000</v>
+      </c>
+      <c r="F52" s="3">
         <v>9934000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6747000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7345000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7431000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6987000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7013000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6170000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5496000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5434000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5370000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5200000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4591000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4470000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4437000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4009000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2908,61 +3152,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118109000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>110014000</v>
+      </c>
+      <c r="F54" s="3">
         <v>113546000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>115438000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>96704000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>98443000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>106229000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>108709000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>109438000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>118318000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>128358000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>137851000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>138201000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>138762000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>133597000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>134991000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>125382000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2982,8 +3238,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3003,326 +3261,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>724000</v>
+      </c>
+      <c r="F57" s="3">
         <v>534000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>637000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>533000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>534000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>486000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>580000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>603000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>587000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>527000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>529000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>603000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>554000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>593000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>599000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>481000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5758000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7251000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2997000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2371000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2355000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>999000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3748000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4494000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4487000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6477000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3743000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4491000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4491000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2499000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4998000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9797000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3498000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13680000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13372000</v>
+      </c>
+      <c r="F59" s="3">
         <v>15217000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14192000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12852000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13059000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14641000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13556000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12896000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13251000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15292000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14104000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12874000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12441000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>14635000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13782000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11811000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20250000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21347000</v>
+      </c>
+      <c r="F60" s="3">
         <v>18748000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17200000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15740000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14592000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18875000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18630000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17986000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20315000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19562000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19124000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17968000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15494000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20226000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>24178000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15790000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63541000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>63531000</v>
+      </c>
+      <c r="F61" s="3">
         <v>67769000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>69209000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>49299000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>50643000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>50684000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>51656000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>51672000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>51561000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>54386000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>56128000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>55145000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>57119000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>47355000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>47132000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>49518000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24681000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16520000</v>
+      </c>
+      <c r="F62" s="3">
         <v>16889000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16312000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16784000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17023000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>17651000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16060000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15542000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15387000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15846000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15726000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16816000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9849000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9650000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9435000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9051000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3374,8 +3670,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3427,8 +3729,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3480,61 +3788,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109209000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>102097000</v>
+      </c>
+      <c r="F66" s="3">
         <v>104055000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>103364000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>82469000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>82880000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>87796000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>86924000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>85724000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>87746000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>90291000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>91479000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>90412000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>82894000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>77638000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>81131000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>74767000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3554,8 +3874,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3607,8 +3929,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3660,8 +3988,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3713,8 +4047,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3766,61 +4106,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16206000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17095000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12022000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>19111000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>20037000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>28296000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>28586000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>27598000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>25576000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3872,8 +4224,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3925,8 +4283,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3978,61 +4342,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7917000</v>
+      </c>
+      <c r="F76" s="3">
         <v>9491000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12074000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14235000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15563000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>18433000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>21785000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>23714000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>30572000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38067000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>46372000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>47789000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>55868000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>55959000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>53860000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>50615000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4084,119 +4460,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2251000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3116000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2571000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2311000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2137000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3740000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2745000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2333000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2265000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3276000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2214000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2144000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3232000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2239000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4216,61 +4610,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F83" s="3">
         <v>701000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>722000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>748000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>748000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>750000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>754000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>741000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>704000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>720000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>702000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>699000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>688000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>696000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>719000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>656000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4322,8 +4724,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4375,8 +4783,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4428,8 +4842,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4481,8 +4901,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4534,61 +4960,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3704000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="F89" s="3">
         <v>5953000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3614000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3012000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>513000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6000000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4422000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2861000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>546000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6722000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4660000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3310000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>850000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6566000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4466000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2699000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4608,61 +5046,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-568000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-436000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-433000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-396000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-349000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-386000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-413000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-443000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-421000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-383000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-378000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-286000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-599000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-473000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-525000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-440000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4714,8 +5160,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4767,61 +5219,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3384000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3852000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>480000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1233000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>12386000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>7906000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>13199000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1920000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>3532000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>3160000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-728000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4841,61 +5305,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-699000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-717000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-730000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-740000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-768000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-767000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-795000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-806000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-670000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-714000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-742000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-778000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-783000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-791000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-788000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-787000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-612000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4947,8 +5419,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5000,8 +5478,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5053,163 +5537,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6129000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4554000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>14133000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4938000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3287000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-940000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F101" s="3">
         <v>232000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-81000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-73000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>75000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-74000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-86000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-228000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>144000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-89000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>230000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>129000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>125000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5680000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>725000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>13410000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-711000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10569000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5794000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3896000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2133000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-463000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2036000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1156000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,260 +665,272 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11227000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10085000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9800000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9367000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10439000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9796000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9614000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9218000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11137000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9614000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9562000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9193000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11014000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9676000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9589000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9104000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10893000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9205000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2122000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1915000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1939000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1880000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1969000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1964000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2048000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1957000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2063000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1976000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2001000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1953000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2173000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2881000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2843000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2777000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2442000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1885000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9105000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8170000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7861000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7487000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8470000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7832000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7566000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7261000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9074000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7638000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7561000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7240000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8841000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6795000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6746000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6327000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8451000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7320000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,67 +952,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1928000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1601000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1589000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1479000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1531000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1557000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1562000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1426000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1475000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1564000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1543000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1496000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1473000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1572000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1608000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1521000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,126 +1074,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E14" s="3">
         <v>79000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>172000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>193000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>81000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>67000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>54000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>103000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>183000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>161000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>104000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>102000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>94000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>309000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>136000</v>
       </c>
       <c r="S14" s="3">
         <v>136000</v>
       </c>
       <c r="T14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="U14" s="3">
         <v>191000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E15" s="3">
         <v>347000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>345000</v>
       </c>
       <c r="F15" s="3">
         <v>345000</v>
       </c>
       <c r="G15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="H15" s="3">
         <v>365000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>407000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>414000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>424000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>407000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>424000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>434000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>415000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>394000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>411000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>441000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>397000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1196,126 +1221,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6686000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6207000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6217000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6156000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6131000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6268000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6431000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6341000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6880000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6215000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6461000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6415000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6853000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6361000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6550000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6355000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6819000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6246000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4541000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3878000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3583000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3211000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4308000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3528000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3183000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2877000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4257000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3399000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3101000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2778000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4161000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3315000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3039000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2749000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4074000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2959000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1337,303 +1369,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>92000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>99000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>134000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>198000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>192000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>291000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>294000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>409000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>262000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>220000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>168000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>189000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5605000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4593000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4303000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3910000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4997000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4280000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4023000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3726000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5145000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4338000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3997000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3789000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5157000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4423000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3989000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3665000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4961000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3804000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>697000</v>
+      </c>
+      <c r="E22" s="3">
         <v>585000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>614000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>579000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>456000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>465000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>494000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>525000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>509000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>519000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>529000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>548000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>533000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>475000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>469000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>481000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>450000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3276000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2972000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2595000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3696000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3076000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2810000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2482000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3866000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3088000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2774000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2540000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3907000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3191000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2826000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3761000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2698000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>530000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>344000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>580000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>505000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>499000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>345000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>126000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>579000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>441000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>428000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>632000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>367000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>612000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>356000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>529000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>459000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,126 +1739,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4032000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5021000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2442000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2251000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3116000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2571000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2311000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2137000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3740000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2509000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2333000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2112000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3275000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2824000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2214000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2144000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3232000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2239000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4032000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5021000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2442000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2251000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3116000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2571000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2311000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2137000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3740000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2509000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2333000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2112000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3275000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2824000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2214000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2144000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3232000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2239000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1868,8 +1925,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1942,8 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1898,28 +1958,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>236000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>153000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -1927,8 +1987,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1986,8 +2049,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2045,126 +2111,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="E32" s="3">
         <v>17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-92000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-99000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-134000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-198000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-192000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-291000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-294000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-409000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-262000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-220000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-168000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-189000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4032000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5021000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2442000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2251000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3116000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2571000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2311000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2137000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3740000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2745000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2333000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2265000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3276000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2214000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2144000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3232000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2239000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2222,131 +2297,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4032000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5021000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2442000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2251000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3116000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2571000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2311000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2137000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3740000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2745000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2333000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2265000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3276000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2214000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2144000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3232000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2239000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2368,8 +2452,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2391,190 +2476,200 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30098000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22321000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28001000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27276000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37239000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23829000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24540000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31083000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20514000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14720000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10824000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18455000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21620000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19487000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21310000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21321000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21784000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19748000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16456000</v>
+      </c>
+      <c r="E42" s="3">
         <v>13543000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10592000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15003000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5818000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2029000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2904000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4621000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17313000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25310000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38567000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>41639000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>45641000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50968000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50270000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>45576000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>44294000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>39604000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6207000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4637000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4423000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4576000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6329000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4162000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4050000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3820000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5910000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3993000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3975000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3729000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5938000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3902000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3798000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3591000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5300000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3721000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
+      <c r="D44" s="3">
+        <v>142000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>24</v>
@@ -2582,11 +2677,11 @@
       <c r="F44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="3">
         <v>211000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
@@ -2594,11 +2689,11 @@
       <c r="J44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3">
         <v>320000</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>24</v>
@@ -2606,147 +2701,156 @@
       <c r="N44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="3">
         <v>398000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>496000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>436000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>312000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>300000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>391000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2664000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3243000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3235000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3084000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2543000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3422000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3046000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2860000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2329000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3594000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3572000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3186000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5986000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2879000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2731000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2535000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2837000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2547000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55567000</v>
+      </c>
+      <c r="E46" s="3">
         <v>43744000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46251000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49939000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52140000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33442000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34540000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42384000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46386000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47617000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56938000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67009000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>76159000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>77732000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78545000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>73335000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>74515000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>66011000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2804,126 +2908,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7049000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6816000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6627000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6401000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9044000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8048000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8170000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8264000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6252000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6197000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6003000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5918000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5897000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5904000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5868000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5586000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5315000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5070000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46365000</v>
+      </c>
+      <c r="E49" s="3">
         <v>46708000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46938000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>47272000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>47507000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>47869000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>48302000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>48594000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49058000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49454000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49881000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49997000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50425000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49365000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49758000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>50206000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50724000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50292000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2981,8 +3094,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3040,67 +3156,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22126000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20841000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10198000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9934000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6747000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7345000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7431000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6987000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7013000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6170000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5496000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5434000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5370000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5200000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4591000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4470000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4437000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4009000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3158,67 +3280,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131107000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118109000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110014000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113546000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>115438000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96704000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98443000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106229000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108709000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109438000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118318000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>128358000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137851000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>138201000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>138762000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133597000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>134991000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>125382000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3240,8 +3368,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3263,362 +3392,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E57" s="3">
         <v>812000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>724000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>534000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>637000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>533000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>534000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>486000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>580000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>603000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>587000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>527000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>529000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>603000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>554000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>593000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>599000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>481000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8250000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5758000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7251000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2997000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2371000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2355000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>999000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3748000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4494000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4487000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6477000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4491000</v>
       </c>
       <c r="P58" s="3">
         <v>4491000</v>
       </c>
       <c r="Q58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="R58" s="3">
         <v>2499000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4998000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9797000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3498000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15169000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13680000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13372000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15217000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14192000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12852000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13059000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14641000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13556000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12896000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13251000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15292000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14104000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12874000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12441000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14635000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13782000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11811000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24164000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20250000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21347000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18748000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17200000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15740000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14592000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18875000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18630000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17986000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20315000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19562000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19124000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17968000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15494000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20226000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24178000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15790000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75995000</v>
+      </c>
+      <c r="E61" s="3">
         <v>63541000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>63531000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>67769000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>69209000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>49299000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50643000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50684000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>51656000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>51672000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51561000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54386000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>56128000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55145000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>57119000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>47355000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47132000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>49518000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24996000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24681000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16520000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16889000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16312000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16784000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17023000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17651000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16060000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15542000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15387000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15846000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15726000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16816000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9849000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9650000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9435000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9051000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3676,8 +3824,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3735,8 +3886,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3794,67 +3948,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125869000</v>
+      </c>
+      <c r="E66" s="3">
         <v>109209000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102097000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104055000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>103364000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82469000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82880000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87796000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86924000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>85724000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87746000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90291000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91479000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90412000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82894000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77638000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81131000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74767000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3876,8 +4036,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3935,8 +4096,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3994,8 +4158,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4053,8 +4220,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4112,67 +4282,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20120000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12022000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19111000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20037000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28296000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28586000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27598000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25576000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4230,8 +4406,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4289,8 +4468,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4348,67 +4530,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5238000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8900000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7917000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9491000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12074000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14235000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15563000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18433000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21785000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23714000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30572000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38067000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46372000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47789000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55868000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55959000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53860000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50615000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4466,131 +4654,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4032000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5021000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2442000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2251000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3116000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2571000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2311000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2137000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3740000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2745000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2333000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2265000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3276000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2214000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2144000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3232000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2239000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4612,67 +4809,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>752000</v>
+      </c>
+      <c r="E83" s="3">
         <v>732000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>731000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>701000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>722000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>748000</v>
       </c>
       <c r="I83" s="3">
         <v>748000</v>
       </c>
       <c r="J83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="K83" s="3">
         <v>750000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>754000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>741000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>704000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>720000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>702000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>699000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>688000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>696000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>719000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>656000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4730,8 +4931,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4789,8 +4993,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4848,8 +5055,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4907,8 +5117,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4966,67 +5179,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4842000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3704000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1388000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5953000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3614000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3012000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>513000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6000000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4422000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2861000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>546000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6722000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4660000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3310000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>850000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6566000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4466000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2699000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5048,67 +5267,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-717000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-414000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-568000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-436000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-433000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-396000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-349000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-386000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-413000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-443000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-421000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-383000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-378000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-286000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-599000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-473000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-525000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-440000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5166,8 +5389,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5225,67 +5451,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3911000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3852000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>480000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1233000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12386000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7906000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13199000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1920000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3532000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3160000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-728000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5307,67 +5539,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-917000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-699000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-717000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-730000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-740000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-768000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-767000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-795000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-806000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-670000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-714000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-742000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-778000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-783000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-791000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-788000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-787000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-612000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5425,8 +5661,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5484,8 +5723,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5543,181 +5785,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6798000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14133000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4938000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3287000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-940000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E101" s="3">
         <v>129000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>39000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>232000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-81000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-73000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>75000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-74000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-86000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-228000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>144000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-89000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>230000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>129000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>125000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7777000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>725000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13410000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-711000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10569000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5794000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3896000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2133000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-463000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2036000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1156000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,272 +665,284 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9728000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11227000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10085000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9800000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9367000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10439000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9796000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9614000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9218000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11137000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9614000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9562000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9193000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11014000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9676000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9589000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9104000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10893000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9205000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2103000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2122000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1915000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1939000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1880000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1969000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1964000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2048000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1957000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2063000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1976000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2001000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1953000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2173000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2881000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2843000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2777000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2442000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1885000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7625000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9105000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8170000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7861000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7487000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8470000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7832000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7566000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7261000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9074000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7638000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7561000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7240000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8841000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6795000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6746000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6327000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8451000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7320000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,70 +965,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1684000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1715000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1928000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1601000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1589000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1479000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1531000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1557000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1562000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1426000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1475000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1564000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1543000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1496000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1473000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1572000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1608000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1521000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,132 +1093,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E14" s="3">
         <v>125000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>79000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>172000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>193000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>81000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>67000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>54000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>103000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>183000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>161000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>104000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>102000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>94000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>309000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>136000</v>
       </c>
       <c r="T14" s="3">
         <v>136000</v>
       </c>
       <c r="U14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="V14" s="3">
         <v>191000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E15" s="3">
         <v>342000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>347000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>345000</v>
       </c>
       <c r="G15" s="3">
         <v>345000</v>
       </c>
       <c r="H15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="I15" s="3">
         <v>365000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>407000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>414000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>424000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>407000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>424000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>434000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>415000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>394000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>400000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>411000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>441000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>397000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1222,132 +1247,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6301000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6686000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6207000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6217000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6156000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6131000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6268000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6431000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6341000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6880000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6215000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6461000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6415000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6853000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6361000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6550000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6355000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6819000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6246000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4541000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3878000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3583000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3211000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4308000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3528000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3183000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2877000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4257000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3399000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3101000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2778000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4161000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3315000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3039000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2749000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4074000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2959000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1370,318 +1402,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>312000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-33000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>92000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>99000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>134000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>198000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>192000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>291000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>294000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>409000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>262000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>220000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>168000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>189000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4143000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5605000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4593000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4303000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3910000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4997000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4280000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4023000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3726000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5145000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4338000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3997000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3789000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5157000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4423000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3989000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3665000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4961000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3804000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E22" s="3">
         <v>697000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>585000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>614000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>579000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>456000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>465000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>494000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>525000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>509000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>519000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>529000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>548000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>533000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>475000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>469000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>481000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>450000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4156000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3276000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2972000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2595000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3696000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3076000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2810000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2482000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3866000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3088000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2774000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2540000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3907000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3191000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2826000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3761000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2698000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E24" s="3">
         <v>124000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>530000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>344000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>580000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>505000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>499000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>345000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>126000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>579000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>441000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>428000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>632000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>367000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>612000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>356000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>529000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>459000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1742,132 +1790,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4032000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5021000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2442000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2251000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3116000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2571000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2311000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2137000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3740000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2509000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2333000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2112000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3275000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2824000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2214000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2144000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3232000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2239000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4032000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5021000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2442000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2251000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3116000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2571000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2311000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2137000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3740000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2509000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2333000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2112000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3275000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2824000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2214000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2144000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3232000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2239000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1928,8 +1985,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1945,8 +2005,8 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1961,28 +2021,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>236000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>153000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -1990,8 +2050,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2052,8 +2115,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2114,132 +2180,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-312000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>33000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-92000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-99000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-134000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-198000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-192000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-291000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-294000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-409000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-262000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-220000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-168000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-189000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4032000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5021000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2442000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2251000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3116000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2571000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2311000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2137000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3740000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2745000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2333000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2265000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3276000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2214000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2144000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3232000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2239000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2300,137 +2375,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4032000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5021000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2442000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2251000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3116000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2571000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2311000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2137000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3740000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2745000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2333000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2265000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3276000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2214000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2144000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3232000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2239000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2453,8 +2537,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2477,202 +2562,212 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23059000</v>
+      </c>
+      <c r="E41" s="3">
         <v>30098000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22321000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28001000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27276000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37239000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23829000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24540000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31083000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20514000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14720000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10824000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18455000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21620000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19487000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21310000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21321000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21784000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19748000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16251000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16456000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13543000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10592000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15003000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5818000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2029000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2904000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4621000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17313000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25310000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38567000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>41639000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>45641000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50968000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>50270000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45576000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>44294000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>39604000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4482000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6207000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4637000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4423000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4576000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6329000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4162000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4050000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3820000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5910000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3993000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3975000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3729000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5938000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3902000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3798000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3591000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5300000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3721000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3">
         <v>142000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>24</v>
@@ -2680,11 +2775,11 @@
       <c r="G44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="3">
         <v>211000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>24</v>
@@ -2692,11 +2787,11 @@
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="3">
         <v>320000</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>24</v>
@@ -2704,153 +2799,162 @@
       <c r="O44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="3">
         <v>398000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>496000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>436000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>312000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>300000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>391000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3325000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2664000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3243000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3235000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3084000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2543000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3422000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3046000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2860000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2329000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3594000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3572000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3186000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5986000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2879000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2731000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2535000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2837000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2547000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47117000</v>
+      </c>
+      <c r="E46" s="3">
         <v>55567000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43744000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46251000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49939000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52140000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33442000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34540000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42384000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46386000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47617000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56938000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67009000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>76159000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>77732000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78545000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>73335000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>74515000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>66011000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2911,132 +3015,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7610000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7049000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6816000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6627000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6401000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9044000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8048000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8170000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8264000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6252000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6197000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6003000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5918000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5897000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5904000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5868000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5586000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5315000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5070000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46043000</v>
+      </c>
+      <c r="E49" s="3">
         <v>46365000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46708000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46938000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>47272000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>47507000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>47869000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>48302000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48594000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49058000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49454000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49881000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49997000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50425000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49365000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49758000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50206000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50724000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>50292000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3097,8 +3210,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3159,70 +3275,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22154000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22126000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20841000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10198000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9934000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6747000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7345000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7431000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6987000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7013000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6170000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5496000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5434000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5370000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5200000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4591000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4470000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4437000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4009000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3283,70 +3405,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122924000</v>
+      </c>
+      <c r="E54" s="3">
         <v>131107000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118109000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110014000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113546000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115438000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96704000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98443000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106229000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108709000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109438000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118318000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>128358000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137851000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>138201000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>138762000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>133597000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>134991000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>125382000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3369,8 +3497,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3393,380 +3522,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E57" s="3">
         <v>745000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>812000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>724000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>534000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>637000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>533000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>534000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>486000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>580000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>603000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>587000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>527000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>529000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>603000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>554000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>593000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>599000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>481000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6748000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8250000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5758000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7251000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2997000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2371000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2355000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>999000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3748000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4494000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4487000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6477000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4491000</v>
       </c>
       <c r="Q58" s="3">
         <v>4491000</v>
       </c>
       <c r="R58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="S58" s="3">
         <v>2499000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4998000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9797000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3498000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15574000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15169000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13680000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13372000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15217000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14192000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12852000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13059000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14641000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13556000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12896000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13251000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15292000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14104000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12874000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12441000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14635000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13782000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11811000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23071000</v>
+      </c>
+      <c r="E60" s="3">
         <v>24164000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20250000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21347000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18748000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17200000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15740000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14592000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18875000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18630000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17986000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20315000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19562000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19124000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17968000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15494000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20226000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24178000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15790000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75970000</v>
+      </c>
+      <c r="E61" s="3">
         <v>75995000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>63541000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>63531000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67769000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>69209000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>49299000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50643000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50684000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>51656000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51672000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51561000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54386000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>56128000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55145000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>57119000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47355000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47132000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>49518000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25013000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24996000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24681000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16520000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16889000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16312000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16784000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17023000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17651000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16060000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15542000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15387000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15846000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15726000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16816000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9849000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9650000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9435000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9051000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3827,8 +3975,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3889,8 +4040,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3951,70 +4105,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124465000</v>
+      </c>
+      <c r="E66" s="3">
         <v>125869000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109209000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102097000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104055000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103364000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82469000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82880000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87796000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86924000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>85724000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87746000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90291000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91479000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90412000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82894000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>77638000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81131000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74767000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4037,8 +4197,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4099,8 +4260,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4161,8 +4325,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4223,8 +4390,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4285,70 +4455,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25679000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12022000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19111000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20037000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28296000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28586000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27598000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25576000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4409,8 +4585,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4471,8 +4650,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4533,70 +4715,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1541000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5238000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8900000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7917000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9491000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12074000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14235000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15563000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18433000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21785000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23714000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30572000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38067000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46372000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47789000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55868000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>55959000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53860000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50615000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4657,137 +4845,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4032000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5021000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2442000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2251000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3116000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2571000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2311000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2137000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3740000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2745000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2333000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2265000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3276000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2214000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2144000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3232000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2239000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4810,70 +5007,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E83" s="3">
         <v>752000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>732000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>731000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>701000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>722000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>748000</v>
       </c>
       <c r="J83" s="3">
         <v>748000</v>
       </c>
       <c r="K83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="L83" s="3">
         <v>750000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>754000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>741000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>704000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>720000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>702000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>699000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>688000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>696000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>719000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>656000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4934,8 +5135,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4996,8 +5200,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5058,8 +5265,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5120,8 +5330,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5182,70 +5395,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5391000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4842000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3704000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5953000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3614000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3012000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>513000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6000000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4422000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2861000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>546000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6722000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4660000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3310000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>850000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6566000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4466000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2699000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5268,70 +5487,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1062000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-717000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-414000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-568000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-436000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-433000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-396000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-349000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-386000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-413000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-443000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-421000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-383000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-378000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-286000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-599000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-473000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-525000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-440000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5392,8 +5615,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5454,70 +5680,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-781000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3852000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>480000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1233000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12386000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7906000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13199000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1920000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3532000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3160000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-728000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5540,70 +5772,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-887000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-917000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-699000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-717000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-730000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-740000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-768000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-767000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-795000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-806000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-670000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-714000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-742000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-778000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-783000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-791000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-788000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-787000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-612000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5664,8 +5900,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5726,8 +5965,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5788,190 +6030,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11468000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6798000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14133000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4938000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3287000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-940000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E101" s="3">
         <v>48000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>129000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>39000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>232000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-81000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-34000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-73000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>75000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-74000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-86000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-228000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>144000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-89000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>230000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>129000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>125000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7039000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7777000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>725000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13410000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-711000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10569000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5794000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3896000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2133000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-463000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2036000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1156000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,296 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10360000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9728000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11227000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10085000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9800000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9367000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10439000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9796000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9614000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9218000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11137000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9614000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9562000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9193000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11014000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9676000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9589000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9104000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10893000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9205000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2103000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2122000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1915000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1939000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1880000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1969000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1964000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2048000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1957000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2063000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1976000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2001000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1953000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2173000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2881000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2843000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2777000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2442000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1885000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8201000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7625000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9105000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8170000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7861000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7487000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8470000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7832000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7566000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7261000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9074000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7638000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7561000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7240000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8841000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6795000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6746000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6327000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8451000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7320000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,73 +978,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1684000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1715000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1928000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1601000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1589000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1479000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1531000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1557000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1562000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1426000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1475000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1564000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1543000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1496000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1473000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1572000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1608000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1521000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,138 +1112,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4699000</v>
+      </c>
+      <c r="E14" s="3">
         <v>59000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>125000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>79000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>172000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>193000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>81000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>67000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>103000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>183000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>161000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>104000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>102000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>94000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>309000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>136000</v>
       </c>
       <c r="U14" s="3">
         <v>136000</v>
       </c>
       <c r="V14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="W14" s="3">
         <v>191000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E15" s="3">
         <v>303000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>342000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>347000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>345000</v>
       </c>
       <c r="H15" s="3">
         <v>345000</v>
       </c>
       <c r="I15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="J15" s="3">
         <v>365000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>407000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>414000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>424000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>407000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>424000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>434000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>415000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>394000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>400000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>411000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>441000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>397000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1248,138 +1273,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11184000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6301000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6686000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6207000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6217000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6156000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6131000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6268000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6431000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6341000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6880000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6215000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6461000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6415000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6853000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6361000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6550000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6355000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6819000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6246000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-824000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3427000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4541000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3878000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3583000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3211000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4308000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3528000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3183000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2877000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4257000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3399000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3101000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2778000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4161000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3315000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3039000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2749000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4074000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2959000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1403,333 +1435,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>312000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-33000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>92000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>99000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>134000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>198000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>192000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>291000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>294000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>409000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>262000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>220000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>168000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>189000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4143000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5605000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4593000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4303000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3910000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4997000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4280000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4023000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3726000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5145000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4338000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3997000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3789000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5157000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4423000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3989000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3665000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4961000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3804000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E22" s="3">
         <v>705000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>697000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>585000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>614000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>579000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>456000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>465000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>494000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>525000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>509000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>519000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>529000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>548000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>533000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>475000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>469000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>481000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>450000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1496000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2681000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4156000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3276000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2972000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2595000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3696000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3076000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2810000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2482000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3866000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3088000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2774000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2540000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3907000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3191000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2826000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2500000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3761000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2698000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="E24" s="3">
         <v>224000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>124000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>530000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>344000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>580000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>505000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>499000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>345000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>126000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>579000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>441000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>428000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>632000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>367000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>612000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>356000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>529000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>459000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1793,138 +1841,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2457000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4032000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5021000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2442000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2251000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3116000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2571000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2311000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2137000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3740000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2509000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2333000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2112000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3275000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2824000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2214000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2144000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3232000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2239000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2457000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4032000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5021000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2442000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2251000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2571000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2311000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2137000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3740000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2509000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2333000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2112000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3275000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2824000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2214000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2144000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3232000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2239000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,8 +2045,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2008,8 +2068,8 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2024,28 +2084,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>236000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>153000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2053,8 +2113,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2118,8 +2181,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2183,138 +2249,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-312000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>33000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-92000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-99000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-134000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-198000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-192000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-291000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-294000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-409000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-262000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-220000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-168000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-189000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2457000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4032000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5021000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2442000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2251000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3116000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2571000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2311000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2137000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3740000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2745000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2333000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2265000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3276000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2214000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2144000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3232000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2239000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2378,143 +2453,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2457000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4032000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5021000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2442000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2251000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3116000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2571000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2311000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2137000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3740000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2745000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2333000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2265000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3276000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2214000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2144000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3232000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2239000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2538,8 +2622,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2563,214 +2648,224 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17938000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23059000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30098000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22321000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28001000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27276000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37239000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23829000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24540000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31083000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20514000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14720000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10824000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18455000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21620000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19487000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21310000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21321000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21784000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19748000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16251000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16456000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13543000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10592000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15003000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5818000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2029000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2904000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4621000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17313000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25310000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38567000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>41639000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>45641000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>50968000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>50270000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>45576000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>44294000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>39604000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4462000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4482000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6207000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4637000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4423000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4576000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6329000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4162000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4050000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3820000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5910000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3993000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3975000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3729000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5938000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3902000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3798000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3591000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5300000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3721000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="3">
         <v>142000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>24</v>
@@ -2778,11 +2873,11 @@
       <c r="H44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="3">
         <v>211000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>24</v>
@@ -2790,11 +2885,11 @@
       <c r="L44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="3">
         <v>320000</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>24</v>
@@ -2802,159 +2897,168 @@
       <c r="P44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="3">
         <v>398000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>496000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>436000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>312000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>300000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>391000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3778000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3325000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2664000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3243000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3235000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3084000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2543000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3422000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3046000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2860000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2329000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3594000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3572000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3186000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5986000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2879000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2731000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2535000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2837000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2547000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31078000</v>
+      </c>
+      <c r="E46" s="3">
         <v>47117000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>55567000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>43744000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46251000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49939000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52140000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33442000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34540000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42384000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46386000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47617000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56938000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>67009000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>76159000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>77732000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78545000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>73335000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>74515000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>66011000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3018,138 +3122,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8029000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7610000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7049000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6816000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6627000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6401000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9044000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8048000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8170000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8264000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6252000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6197000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6003000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5918000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5897000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5904000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5868000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5586000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5315000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5070000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45723000</v>
+      </c>
+      <c r="E49" s="3">
         <v>46043000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46365000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46708000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46938000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>47272000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>47507000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>47869000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48302000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48594000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49058000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49454000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49881000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49997000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>50425000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49365000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49758000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50206000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>50724000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>50292000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3213,8 +3326,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3278,73 +3394,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22067000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22154000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22126000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20841000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10198000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9934000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6747000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7345000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7431000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6987000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7013000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6170000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5496000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5434000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5370000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5200000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4591000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4470000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4437000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4009000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3408,73 +3530,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106897000</v>
+      </c>
+      <c r="E54" s="3">
         <v>122924000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131107000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118109000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110014000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113546000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115438000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96704000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98443000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106229000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108709000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109438000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118318000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>128358000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>137851000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>138201000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>138762000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>133597000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>134991000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>125382000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3498,8 +3626,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3523,398 +3652,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E57" s="3">
         <v>749000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>745000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>812000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>724000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>534000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>637000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>533000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>486000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>580000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>603000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>587000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>527000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>529000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>603000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>554000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>593000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>599000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>481000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4998000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6748000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8250000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5758000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7251000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2997000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2371000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2355000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>999000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3748000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4494000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4487000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6477000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4491000</v>
       </c>
       <c r="R58" s="3">
         <v>4491000</v>
       </c>
       <c r="S58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="T58" s="3">
         <v>2499000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4998000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9797000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3498000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12849000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15574000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15169000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13680000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13372000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15217000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14192000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12852000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13059000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14641000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13556000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12896000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13251000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15292000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14104000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12874000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12441000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14635000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13782000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11811000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18881000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23071000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24164000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20250000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21347000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18748000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17200000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15740000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14592000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18875000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18630000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17986000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20315000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19562000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19124000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17968000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15494000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20226000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24178000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15790000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>73433000</v>
+      </c>
+      <c r="E61" s="3">
         <v>75970000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75995000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>63541000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63531000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67769000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>69209000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>49299000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50643000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50684000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>51656000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51672000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51561000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54386000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>56128000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>55145000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>57119000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>47355000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>47132000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>49518000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24241000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25013000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24996000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24681000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16520000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16889000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16312000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16784000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17023000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17651000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16060000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15542000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15387000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15846000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15726000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16816000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9849000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9650000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9435000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9051000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3978,8 +4126,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4043,8 +4194,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4108,73 +4262,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>116998000</v>
+      </c>
+      <c r="E66" s="3">
         <v>124465000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>125869000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109209000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102097000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104055000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>103364000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82469000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82880000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87796000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86924000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>85724000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87746000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90291000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91479000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90412000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>82894000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>77638000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>81131000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>74767000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4198,8 +4358,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4263,8 +4424,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4328,8 +4492,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4393,8 +4560,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4458,73 +4628,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34076000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12022000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19111000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20037000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28296000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28586000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27598000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25576000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4588,8 +4764,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4653,8 +4832,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4718,73 +4900,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10101000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5238000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8900000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7917000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9491000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12074000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14235000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15563000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18433000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21785000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23714000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30572000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38067000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46372000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47789000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>55868000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>55959000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53860000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50615000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4848,143 +5036,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2457000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4032000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5021000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2442000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2251000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3116000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2571000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2311000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2137000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3740000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2745000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2333000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2265000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3276000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2214000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2144000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3232000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2239000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5008,73 +5205,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E83" s="3">
         <v>757000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>752000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>732000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>731000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>701000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>722000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>748000</v>
       </c>
       <c r="K83" s="3">
         <v>748000</v>
       </c>
       <c r="L83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="M83" s="3">
         <v>750000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>754000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>741000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>704000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>720000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>702000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>699000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>688000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>696000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>719000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>656000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5138,8 +5339,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5203,8 +5407,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5268,8 +5475,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5333,8 +5543,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5398,73 +5611,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3682000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5391000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4842000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3704000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5953000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3614000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3012000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>513000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6000000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4422000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2861000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>546000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6722000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4660000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3310000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>850000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6566000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4466000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2699000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5488,73 +5707,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-925000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-717000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-414000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-568000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-436000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-433000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-396000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-349000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-386000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-413000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-443000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-421000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-383000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-378000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-286000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-599000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-473000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-525000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-440000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5618,8 +5841,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5683,73 +5909,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10730000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-781000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3852000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>480000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1233000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12386000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7906000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>13199000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1920000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3532000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3160000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-728000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5773,73 +6005,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-861000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-887000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-917000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-699000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-717000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-730000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-740000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-768000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-767000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-795000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-806000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-670000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-714000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-742000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-778000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-783000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-791000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-788000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-787000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-612000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5903,8 +6139,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5968,8 +6207,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6033,199 +6275,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12053000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6798000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14133000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4938000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3287000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-940000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-181000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>48000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>129000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>39000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>232000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-81000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-34000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-73000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>75000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-74000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-228000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>144000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-89000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>230000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>129000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>125000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5121000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7777000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>725000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13410000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-711000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10569000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5794000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3896000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2133000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-463000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2036000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1156000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10513000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10360000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9728000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11227000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10085000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9800000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9367000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10439000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9796000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9614000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9218000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11137000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9614000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9562000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9193000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11014000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9676000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9589000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9104000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10893000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9205000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2218000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2159000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2103000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2122000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1915000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1939000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1880000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1969000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1964000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2048000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1957000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2063000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1976000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2001000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1953000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2173000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2881000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2843000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2777000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2442000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1885000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8295000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8201000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7625000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9105000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8170000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7861000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7487000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8470000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7832000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7566000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7261000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9074000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7638000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7561000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7240000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8841000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6795000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6746000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6327000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8451000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7320000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,76 +991,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1816000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1754000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1684000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1715000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1928000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1601000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1589000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1479000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1531000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1557000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1562000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1426000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1475000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1564000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1543000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1496000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1473000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1572000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1608000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1521000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,144 +1131,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4699000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>59000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>125000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>79000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>172000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>193000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>81000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>67000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>103000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>183000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>161000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>104000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>102000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>94000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>309000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>136000</v>
       </c>
       <c r="V14" s="3">
         <v>136000</v>
       </c>
       <c r="W14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="X14" s="3">
         <v>191000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E15" s="3">
         <v>299000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>303000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>342000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>347000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>345000</v>
       </c>
       <c r="I15" s="3">
         <v>345000</v>
       </c>
       <c r="J15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="K15" s="3">
         <v>365000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>400000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>407000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>414000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>424000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>407000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>424000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>434000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>415000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>394000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>400000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>411000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>441000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>397000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1274,144 +1299,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6691000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11184000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6301000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6686000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6207000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6217000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6156000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6131000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6268000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6431000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6341000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6880000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6215000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6461000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6415000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6853000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6361000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6550000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6355000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6819000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6246000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3822000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-824000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3427000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4541000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3878000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3583000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3211000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4308000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3528000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3183000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2877000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4257000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3399000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3101000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2778000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4161000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3315000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3039000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2749000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4074000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2959000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1436,348 +1468,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-315000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>312000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>92000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>99000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>134000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>198000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>192000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>291000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>294000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>409000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>262000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>220000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>168000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>189000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4282000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-58000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4143000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5605000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4593000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4303000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3910000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4997000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4280000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4023000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3726000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5145000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4338000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3997000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3789000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5157000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4423000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3989000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3665000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4961000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3804000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E22" s="3">
         <v>679000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>705000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>697000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>585000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>614000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>579000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>456000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>465000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>494000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>525000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>509000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>519000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>529000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>548000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>533000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>475000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>469000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>481000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>450000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2840000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2681000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4156000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3276000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2972000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2595000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3696000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3076000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2810000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2482000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3866000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3088000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2540000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3907000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3191000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2826000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3761000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2698000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-249000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>224000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>124000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>530000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>344000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>580000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>505000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>499000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>345000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>126000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>579000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>441000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>428000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>632000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>367000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>612000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>356000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>529000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>459000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1844,144 +1892,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2457000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4032000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5021000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2442000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2251000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3116000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2571000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2311000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2137000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3740000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2509000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2333000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2112000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3275000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2824000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2214000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2144000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3232000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2239000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2457000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4032000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5021000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2442000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2251000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2571000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2311000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2137000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3740000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2509000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2333000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2112000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3275000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2824000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2214000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2144000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3232000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2239000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2048,8 +2105,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2071,8 +2131,8 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2087,28 +2147,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>236000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>153000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2116,8 +2176,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2184,8 +2247,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2252,144 +2318,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-312000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-92000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-99000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-134000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-198000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-192000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-291000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-294000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-409000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-262000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-220000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-168000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-189000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2457000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4032000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5021000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2442000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2251000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3116000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2571000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2311000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2137000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3740000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2745000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2333000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2265000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3276000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2214000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2144000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3232000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2239000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2456,149 +2531,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2457000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4032000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5021000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2442000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2251000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3116000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2571000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2311000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2137000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3740000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2745000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2333000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2265000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3276000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2214000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2144000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3232000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2239000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2623,8 +2707,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2649,212 +2734,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22682000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17938000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23059000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30098000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22321000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28001000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27276000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37239000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23829000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24540000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31083000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20514000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14720000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10824000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18455000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21620000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19487000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21310000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21321000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21784000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19748000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4900000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16251000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16456000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13543000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10592000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15003000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5818000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2029000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2904000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4621000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17313000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25310000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38567000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>41639000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>45641000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>50968000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50270000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>45576000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>44294000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>39604000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4588000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4462000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4482000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6207000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4637000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4423000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4576000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6329000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4162000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4050000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3820000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5910000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3993000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3975000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3729000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5938000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3902000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3798000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3591000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5300000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3721000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2864,11 +2959,11 @@
       <c r="E44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="3">
         <v>142000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>24</v>
@@ -2876,11 +2971,11 @@
       <c r="I44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="3">
         <v>211000</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>24</v>
@@ -2888,11 +2983,11 @@
       <c r="M44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="3">
         <v>320000</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>24</v>
@@ -2900,165 +2995,174 @@
       <c r="Q44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="3">
         <v>398000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>496000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>436000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>312000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>300000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>391000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3698000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3778000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3325000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2664000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3243000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3235000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3084000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2543000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3422000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3046000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2860000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2329000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3594000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3572000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3186000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5986000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2879000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2731000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2535000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2837000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2547000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31675000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31078000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47117000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55567000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>43744000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46251000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49939000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52140000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33442000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34540000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42384000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46386000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47617000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>56938000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>67009000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>76159000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>77732000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>78545000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>73335000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>74515000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>66011000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3125,144 +3229,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8609000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8029000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7610000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7049000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6816000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6627000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6401000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9044000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8048000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8170000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8264000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6252000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6197000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6003000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5918000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5897000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5904000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5868000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5586000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5315000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5070000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45521000</v>
+      </c>
+      <c r="E49" s="3">
         <v>45723000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46043000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46365000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46708000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46938000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>47272000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>47507000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47869000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48302000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48594000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49058000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49454000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49881000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49997000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>50425000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49365000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49758000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>50206000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>50724000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50292000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3329,8 +3442,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3397,76 +3513,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22839000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22067000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22154000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22126000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20841000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10198000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9934000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6747000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7345000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7431000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6987000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7013000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6170000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5496000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5434000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5370000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5200000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4591000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4470000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4437000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4009000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3533,76 +3655,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108644000</v>
+      </c>
+      <c r="E54" s="3">
         <v>106897000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122924000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131107000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118109000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110014000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113546000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115438000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96704000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98443000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106229000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108709000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109438000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118318000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>128358000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>137851000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>138201000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>138762000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>133597000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>134991000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>125382000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3627,8 +3755,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3653,416 +3782,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1034000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>749000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>745000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>812000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>724000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>534000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>637000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>533000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>534000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>486000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>580000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>603000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>587000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>527000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>529000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>603000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>554000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>593000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>599000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>481000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6248000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4998000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6748000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8250000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5758000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7251000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2997000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2371000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2355000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>999000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3748000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4494000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4487000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6477000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4491000</v>
       </c>
       <c r="S58" s="3">
         <v>4491000</v>
       </c>
       <c r="T58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="U58" s="3">
         <v>2499000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4998000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9797000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3498000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13461000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12849000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15574000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15169000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13680000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13372000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15217000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14192000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12852000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13059000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14641000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13556000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12896000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13251000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15292000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14104000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12874000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12441000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14635000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13782000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11811000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20833000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18881000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23071000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24164000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20250000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21347000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18748000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17200000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15740000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14592000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18875000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18630000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17986000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20315000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19562000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19124000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17968000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15494000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20226000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24178000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15790000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>72165000</v>
+      </c>
+      <c r="E61" s="3">
         <v>73433000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75970000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75995000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63541000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>63531000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>67769000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>69209000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49299000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50643000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>50684000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51656000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51672000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51561000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>54386000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>56128000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>55145000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>57119000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>47355000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>47132000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>49518000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23857000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24241000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25013000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24996000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24681000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16520000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16889000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16312000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16784000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17023000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17651000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16060000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15542000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15387000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15846000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15726000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16816000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9849000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9650000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9435000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9051000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4129,8 +4277,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4197,8 +4348,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4265,76 +4419,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117340000</v>
+      </c>
+      <c r="E66" s="3">
         <v>116998000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>124465000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>125869000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109209000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102097000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104055000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>103364000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82469000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82880000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87796000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86924000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>85724000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87746000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90291000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91479000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90412000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>82894000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>77638000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>81131000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>74767000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4359,8 +4519,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4427,8 +4588,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4495,8 +4659,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4563,8 +4730,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4631,76 +4801,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33147000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12022000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19111000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20037000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28296000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28586000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27598000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25576000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4767,8 +4943,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4835,8 +5014,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4903,76 +5085,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8696000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5238000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8900000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7917000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9491000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12074000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14235000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15563000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18433000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21785000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23714000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30572000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38067000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46372000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47789000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>55868000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>55959000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>53860000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>50615000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5039,149 +5227,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2319000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2457000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4032000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5021000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2442000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2251000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3116000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2571000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2311000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2137000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3740000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2745000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2333000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2265000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3276000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2214000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2144000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3232000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2239000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5206,76 +5403,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E83" s="3">
         <v>759000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>757000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>752000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>732000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>731000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>701000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>722000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>748000</v>
       </c>
       <c r="L83" s="3">
         <v>748000</v>
       </c>
       <c r="M83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="N83" s="3">
         <v>750000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>754000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>741000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>704000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>720000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>702000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>699000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>688000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>696000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>719000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>656000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5342,8 +5543,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5410,8 +5614,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5478,8 +5685,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5546,8 +5756,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5614,76 +5827,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3845000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5391000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4842000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3704000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1388000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5953000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3614000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3012000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>513000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6000000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4422000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2861000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>546000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6722000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4660000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3310000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>850000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6566000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4466000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2699000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5708,76 +5927,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1101000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-925000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-717000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-414000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-568000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-436000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-433000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-396000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-349000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-386000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-413000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-443000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-421000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-383000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-378000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-286000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-599000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-473000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-525000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-440000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5844,8 +6067,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5912,76 +6138,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2432000</v>
+      </c>
+      <c r="E94" s="3">
         <v>10730000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-781000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3852000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>480000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1233000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12386000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7906000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>13199000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1920000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3532000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3160000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-728000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6006,76 +6238,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-855000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-861000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-887000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-917000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-699000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-717000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-730000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-740000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-768000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-767000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-795000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-806000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-670000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-714000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-742000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-778000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-783000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-791000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-788000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-787000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-612000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6142,8 +6378,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6210,8 +6449,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6278,208 +6520,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1579000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6798000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14133000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4938000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3287000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-940000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-116000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-181000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>129000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>39000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>232000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-81000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-34000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-73000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>75000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-86000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-228000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>144000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-89000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>230000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>129000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>125000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4744000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7777000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>725000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13410000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-711000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10569000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5794000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3896000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2133000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-463000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2036000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1156000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11840000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10513000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10360000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9728000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11227000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10085000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9800000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9367000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10439000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9796000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9614000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9218000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11137000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9614000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9562000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9193000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11014000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9676000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9589000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9104000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10893000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9205000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2397000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2218000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2159000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2103000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2122000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1915000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1939000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1880000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1969000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1964000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2048000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1957000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2063000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1976000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2001000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1953000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2173000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2881000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2843000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2777000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2442000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1885000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9443000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8295000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8201000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7625000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9105000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8170000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7861000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7487000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8470000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7832000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7566000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7261000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9074000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7638000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7561000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7240000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8841000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6795000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6746000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6327000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8451000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7320000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,79 +1004,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1816000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1754000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1684000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1715000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1928000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1601000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1589000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1479000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1531000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1557000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1562000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1475000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1564000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1543000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1496000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1473000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1572000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1608000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1521000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1134,150 +1150,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E14" s="3">
         <v>39000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4699000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>59000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>125000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>79000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>172000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>193000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>81000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>67000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>103000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>183000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>161000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>104000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>102000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>94000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>309000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>136000</v>
       </c>
       <c r="W14" s="3">
         <v>136000</v>
       </c>
       <c r="X14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>191000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E15" s="3">
         <v>279000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>299000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>303000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>342000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>347000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>345000</v>
       </c>
       <c r="J15" s="3">
         <v>345000</v>
       </c>
       <c r="K15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="L15" s="3">
         <v>365000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>407000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>414000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>424000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>407000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>424000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>434000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>415000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>394000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>400000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>411000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>441000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>397000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1300,150 +1325,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7338000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6691000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11184000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6301000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6686000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6207000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6217000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6156000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6131000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6268000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6431000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6341000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6880000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6215000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6461000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6415000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6853000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6361000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6550000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6355000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6819000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6246000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4502000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3822000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-824000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3427000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4541000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3878000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3583000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3211000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4308000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3528000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3183000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2877000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4257000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3399000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3101000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2778000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4161000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3315000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3039000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2749000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4074000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2959000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1469,363 +1501,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-315000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>312000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>92000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>99000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>134000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>198000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>192000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>291000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>294000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>409000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>262000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>220000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>168000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>189000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5159000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4282000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-58000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4143000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5605000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4593000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4303000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3910000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4997000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4280000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4023000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3726000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5145000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4338000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3997000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3789000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5157000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4423000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3989000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3665000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4961000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3804000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E22" s="3">
         <v>667000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>679000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>705000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>697000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>585000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>614000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>579000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>456000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>465000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>494000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>525000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>509000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>519000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>529000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>548000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>533000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>475000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>469000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>481000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>450000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3624000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2840000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2681000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4156000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3276000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2972000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2595000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3696000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3076000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2810000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2482000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3866000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3088000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2774000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2540000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3907000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3191000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2826000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2500000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3761000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2698000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E24" s="3">
         <v>521000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-249000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>224000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>124000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>530000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>344000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>580000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>505000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>499000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>345000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>126000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>579000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>441000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>428000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>632000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>367000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>612000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>356000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>529000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>459000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1895,150 +1943,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3189000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2319000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2457000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4032000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5021000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2442000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2251000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3116000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2571000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2311000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2137000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3740000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2509000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2333000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2112000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3275000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2824000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2214000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2144000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3232000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2239000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3189000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2319000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2457000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4032000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5021000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2442000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2251000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3116000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2571000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2311000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2137000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3740000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2509000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2333000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2112000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3275000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2824000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2214000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2144000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3232000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2239000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2108,70 +2165,73 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>236000</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>153000</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U29" s="3">
+        <v>-6871000</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>236000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>153000</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-6871000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2179,8 +2239,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2250,8 +2313,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2321,150 +2387,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E32" s="3">
         <v>315000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-312000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-92000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-99000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-134000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-198000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-192000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-291000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-294000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-409000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-262000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-220000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-168000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-189000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3189000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2319000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2457000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4032000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5021000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2442000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2251000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3116000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2571000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2311000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2137000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3740000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2333000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2265000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3276000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2214000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2144000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3232000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2239000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2534,155 +2609,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3189000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2319000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2457000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4032000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5021000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2442000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2251000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3116000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2571000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2311000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2137000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3740000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2333000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2265000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3276000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2214000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2144000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3232000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2239000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2708,8 +2792,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2735,221 +2820,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21383000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22682000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17938000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23059000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30098000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22321000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28001000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27276000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37239000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23829000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24540000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31083000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20514000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14720000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10824000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18455000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21620000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19487000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21310000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21321000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>21784000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19748000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E42" s="3">
         <v>707000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4900000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16251000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16456000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13543000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10592000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15003000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5818000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2029000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2904000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4621000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17313000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25310000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38567000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>41639000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45641000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50968000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50270000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>45576000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>44294000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>39604000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5953000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4588000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4462000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4482000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6207000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4637000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4423000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4576000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6329000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4162000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4050000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3820000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5910000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3993000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3975000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3729000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5938000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3902000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3798000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3591000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5300000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3721000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2962,11 +3057,11 @@
       <c r="F44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="3">
         <v>142000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
@@ -2974,11 +3069,11 @@
       <c r="J44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3">
         <v>211000</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>24</v>
@@ -2986,11 +3081,11 @@
       <c r="N44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="3">
         <v>320000</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>24</v>
@@ -2998,171 +3093,180 @@
       <c r="R44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="3">
         <v>398000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>496000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>436000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>312000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>300000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>391000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3778000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3698000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3778000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3325000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2664000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3243000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3235000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3084000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2543000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3422000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3046000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2860000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2329000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3594000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3572000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3186000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5986000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2879000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2731000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2535000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2837000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2547000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31633000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31675000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31078000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47117000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55567000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>43744000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46251000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49939000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52140000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33442000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34540000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42384000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46386000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47617000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>56938000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67009000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>76159000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>77732000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>78545000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>73335000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>74515000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>66011000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3232,150 +3336,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9716000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8609000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8029000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7610000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7049000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6816000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6627000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6401000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9044000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8048000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8170000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8264000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6252000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6197000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6003000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5918000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5897000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5904000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5868000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5586000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5315000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5070000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45251000</v>
+      </c>
+      <c r="E49" s="3">
         <v>45521000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45723000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46043000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46365000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46708000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46938000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>47272000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47507000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47869000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48302000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48594000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49058000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49454000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49881000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49997000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50425000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49365000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>49758000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>50206000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50724000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>50292000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3445,8 +3558,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3516,79 +3632,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22697000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22839000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22067000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22154000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22126000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20841000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10198000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9934000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6747000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7345000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7431000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6987000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7013000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6170000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5496000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5434000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5370000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5200000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4591000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4470000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4437000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4009000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3658,79 +3780,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109297000</v>
+      </c>
+      <c r="E54" s="3">
         <v>108644000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106897000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122924000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>131107000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118109000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110014000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113546000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115438000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96704000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98443000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106229000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108709000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109438000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118318000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>128358000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>137851000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>138201000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>138762000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>133597000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>134991000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>125382000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3756,8 +3884,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3783,434 +3912,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1124000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1034000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>749000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>745000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>812000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>724000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>534000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>637000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>533000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>534000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>486000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>580000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>603000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>587000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>527000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>529000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>603000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>554000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>593000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>599000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>481000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3749000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6248000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4998000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6748000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8250000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5758000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7251000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2997000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2371000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2355000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>999000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3748000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4494000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4487000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6477000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4491000</v>
       </c>
       <c r="T58" s="3">
         <v>4491000</v>
       </c>
       <c r="U58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="V58" s="3">
         <v>2499000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4998000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9797000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3498000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14445000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13461000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12849000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15574000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15169000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13680000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13372000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15217000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14192000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12852000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13059000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14641000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13556000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12896000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13251000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15292000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14104000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12874000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12441000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14635000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13782000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11811000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19511000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20833000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18881000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23071000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24164000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20250000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21347000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18748000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17200000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15740000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14592000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18875000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18630000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17986000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20315000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19562000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19124000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17968000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15494000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20226000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24178000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15790000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>72110000</v>
+      </c>
+      <c r="E61" s="3">
         <v>72165000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>73433000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75970000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75995000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>63541000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>63531000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>67769000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69209000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49299000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>50643000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>50684000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>51656000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51672000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51561000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54386000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>56128000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>55145000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>57119000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>47355000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>47132000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>49518000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23444000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23857000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24241000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25013000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24996000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24681000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16520000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16889000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16312000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16784000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17023000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17651000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16060000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15542000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15387000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15846000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15726000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16816000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9849000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9650000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9435000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9051000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4280,8 +4428,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4351,8 +4502,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4422,79 +4576,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115517000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117340000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>116998000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>124465000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>125869000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109209000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102097000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104055000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103364000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82469000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82880000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87796000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86924000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>85724000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87746000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90291000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91479000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90412000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>82894000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>77638000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>81131000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>74767000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4520,8 +4680,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4591,8 +4752,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4662,8 +4826,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4733,8 +4900,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4804,79 +4974,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31336000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33147000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12022000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19111000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20037000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28296000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28586000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27598000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25576000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4946,8 +5122,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5017,8 +5196,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5088,79 +5270,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6220000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8696000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5238000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8900000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7917000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9491000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12074000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14235000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15563000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18433000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21785000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23714000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30572000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38067000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46372000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47789000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>55868000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>55959000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>53860000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>50615000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5230,155 +5418,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3189000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2319000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2457000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4032000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5021000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2442000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2251000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3116000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2571000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2311000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2137000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3740000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2333000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2265000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3276000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2214000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2144000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3232000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2239000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5404,79 +5601,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E83" s="3">
         <v>775000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>759000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>757000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>752000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>732000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>731000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>701000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>722000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>748000</v>
       </c>
       <c r="M83" s="3">
         <v>748000</v>
       </c>
       <c r="N83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="O83" s="3">
         <v>750000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>754000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>741000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>704000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>720000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>702000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>699000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>688000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>696000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>719000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>656000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5546,8 +5747,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5617,8 +5821,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5688,8 +5895,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5759,8 +5969,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5830,79 +6043,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3985000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3845000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5391000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4842000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3704000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1388000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5953000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3614000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3012000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>513000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6000000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4422000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2861000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>546000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6722000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4660000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3310000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>850000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6566000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4466000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2699000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5928,79 +6147,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1423000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1101000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-925000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-717000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-414000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-568000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-436000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-433000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-396000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-349000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-386000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-413000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-443000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-421000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-383000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-378000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-286000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-599000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-473000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-525000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-440000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6070,8 +6293,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6141,79 +6367,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1161000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2432000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10730000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-781000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3852000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>480000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1233000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12386000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7906000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13199000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1920000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3532000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3160000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-728000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6239,79 +6471,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-854000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-855000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-861000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-887000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-917000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-699000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-717000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-730000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-740000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-768000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-767000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-795000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-806000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-670000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-714000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-742000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-778000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-783000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-791000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-788000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-787000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-612000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6381,8 +6617,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6452,8 +6691,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6523,217 +6765,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4026000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1579000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6798000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14133000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4938000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3287000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-940000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E101" s="3">
         <v>46000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-116000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-181000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>129000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>39000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>232000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-81000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-34000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-73000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>75000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-74000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-86000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-228000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>144000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-89000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>230000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>129000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>125000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1299000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4744000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7777000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>725000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13410000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-711000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10569000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5794000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3896000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2133000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-463000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2036000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1156000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,332 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11445000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11840000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10513000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10360000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9728000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11227000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10085000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9800000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9367000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10439000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9796000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9614000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9218000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11137000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9614000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9562000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9193000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11014000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9676000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9589000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9104000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10893000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9205000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3037000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2397000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2218000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2159000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2103000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2122000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1915000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1939000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1880000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1969000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1964000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2048000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1957000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2063000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1976000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2001000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1953000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2173000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2881000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2843000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2777000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2442000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1885000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8408000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9443000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8295000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8201000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7625000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9105000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8170000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7861000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7487000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8470000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7832000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7566000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7261000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9074000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7638000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7561000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7240000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8841000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6795000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6746000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6327000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8451000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7320000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,82 +1017,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1965000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1816000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1754000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1684000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1715000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1928000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1601000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1589000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1479000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1531000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1557000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1562000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1426000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1475000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1564000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1543000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1496000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1473000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1572000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1608000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1521000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1153,156 +1169,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E14" s="3">
         <v>108000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4699000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>59000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>125000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>79000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>172000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>193000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>81000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>67000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>54000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>103000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>183000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>39000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>161000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>104000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>102000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>94000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>309000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>136000</v>
       </c>
       <c r="X14" s="3">
         <v>136000</v>
       </c>
       <c r="Y14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>191000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E15" s="3">
         <v>268000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>279000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>299000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>303000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>342000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>347000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>345000</v>
       </c>
       <c r="K15" s="3">
         <v>345000</v>
       </c>
       <c r="L15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="M15" s="3">
         <v>365000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>407000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>414000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>424000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>407000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>424000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>434000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>415000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>394000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>400000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>411000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>441000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>397000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1326,156 +1351,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8822000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7338000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6691000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11184000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6301000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6686000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6207000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6217000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6156000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6131000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6268000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6431000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6341000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6880000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6215000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6461000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6415000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6853000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6361000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6550000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6355000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6819000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6246000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2623000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4502000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3822000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-824000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3427000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4541000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3878000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3583000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3211000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4308000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3528000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3183000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2877000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4257000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3399000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3101000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2778000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4161000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3315000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3039000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2749000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4074000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2959000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1502,378 +1534,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-174000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-315000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>312000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>92000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>99000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>134000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>198000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>192000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>291000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>294000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>409000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>262000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>220000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>168000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>189000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3909000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5159000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4282000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-58000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4143000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5605000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4593000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4303000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3910000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4997000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4280000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4023000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3726000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5145000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4338000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3997000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3789000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5157000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4423000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3989000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3665000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4961000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3804000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>787000</v>
+      </c>
+      <c r="E22" s="3">
         <v>704000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>667000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>679000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>705000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>697000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>585000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>614000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>579000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>456000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>465000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>494000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>525000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>509000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>519000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>529000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>548000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>533000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>475000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>469000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>481000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>450000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1656000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3624000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2840000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2681000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4156000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3276000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2972000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2595000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3696000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3076000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2810000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2482000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3866000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3088000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2774000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2540000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3907000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3191000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2826000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2500000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3761000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2698000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E24" s="3">
         <v>435000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>521000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-249000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>224000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>124000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>530000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>344000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>580000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>505000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>499000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>345000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>126000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>579000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>441000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>428000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>632000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>367000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>612000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>356000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>529000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>459000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1946,156 +1994,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3189000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2319000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2457000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4032000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5021000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2442000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2251000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3116000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2571000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2311000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2137000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3740000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2509000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2333000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2112000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3275000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2824000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2214000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2144000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3232000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2239000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3189000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2319000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2457000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4032000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5021000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2442000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2251000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3116000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2571000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2311000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2137000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3740000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2509000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2333000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2112000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3275000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2824000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2214000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2144000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3232000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2239000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2168,8 +2225,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2194,12 +2254,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2213,28 +2273,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>236000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>153000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2242,8 +2302,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2316,8 +2379,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2390,156 +2456,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E32" s="3">
         <v>174000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>315000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-312000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-92000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-99000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-198000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-192000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-291000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-294000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-409000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-262000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-220000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-168000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-189000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3189000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2319000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2457000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4032000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5021000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2442000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2251000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3116000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2571000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2311000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2137000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3740000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2745000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2333000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2265000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3276000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2214000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2144000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3232000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2239000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2612,161 +2687,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3189000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2319000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2457000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4032000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5021000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2442000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2251000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3116000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2571000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2311000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2137000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3740000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2745000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2333000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2265000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3276000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2214000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2144000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3232000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2239000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2793,8 +2877,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2821,230 +2906,240 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10448000</v>
+      </c>
+      <c r="E41" s="3">
         <v>21383000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22682000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17938000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23059000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30098000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22321000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28001000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27276000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37239000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23829000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24540000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31083000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20514000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14720000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10824000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18455000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21620000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19487000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21310000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>21321000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21784000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19748000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>772000</v>
+      </c>
+      <c r="E42" s="3">
         <v>519000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>707000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4900000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16251000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16456000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13543000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10592000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15003000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5818000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2029000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2904000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4621000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17313000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25310000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38567000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>41639000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>45641000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50968000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50270000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>45576000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>44294000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>39604000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5937000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5953000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4588000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4462000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4482000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6207000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4637000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4423000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4576000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6329000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4162000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4050000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3820000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5910000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3993000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3975000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3729000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5938000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3902000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3798000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3591000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5300000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3721000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3060,11 +3155,11 @@
       <c r="G44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="3">
         <v>142000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>24</v>
@@ -3072,11 +3167,11 @@
       <c r="K44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="3">
         <v>211000</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>24</v>
@@ -3084,11 +3179,11 @@
       <c r="O44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="3">
         <v>320000</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>24</v>
@@ -3096,177 +3191,186 @@
       <c r="S44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="3">
         <v>398000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>496000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>436000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>312000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>300000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>391000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3847000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3778000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3698000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3778000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3325000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2664000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3243000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3235000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3084000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2543000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3422000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3046000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2860000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2329000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3594000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3572000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3186000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5986000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2879000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2731000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2535000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2837000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2547000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21004000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31633000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31675000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31078000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47117000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55567000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>43744000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46251000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49939000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52140000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33442000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34540000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42384000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46386000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47617000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56938000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67009000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>76159000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>77732000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>78545000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>73335000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>74515000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>66011000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3339,156 +3443,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12280000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9716000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8609000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8029000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7610000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7049000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6816000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6627000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6401000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9044000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8048000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8170000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8264000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6252000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6197000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6003000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5918000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5897000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5904000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5868000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5586000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5315000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5070000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74128000</v>
+      </c>
+      <c r="E49" s="3">
         <v>45251000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45521000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45723000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46043000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46365000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46708000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46938000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47272000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47507000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47869000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48302000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>48594000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49058000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49454000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49881000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49997000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50425000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>49365000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>49758000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50206000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>50724000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>50292000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3561,8 +3674,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3635,82 +3751,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22897000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22697000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22839000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22067000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22154000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22126000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20841000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10198000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9934000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6747000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7345000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7431000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6987000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7013000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6170000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5496000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5434000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5370000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5200000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4591000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4470000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4437000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4009000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3783,82 +3905,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>130309000</v>
+      </c>
+      <c r="E54" s="3">
         <v>109297000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108644000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106897000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122924000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>131107000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118109000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>110014000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113546000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115438000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96704000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98443000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106229000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108709000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109438000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118318000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>128358000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>137851000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>138201000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>138762000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>133597000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>134991000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>125382000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3885,8 +4013,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3913,452 +4042,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1317000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1124000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1034000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>749000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>745000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>812000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>724000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>637000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>533000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>534000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>486000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>580000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>603000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>587000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>527000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>529000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>603000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>554000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>593000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>599000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>481000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16097000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3749000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6248000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4998000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6748000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8250000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5758000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7251000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2997000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2371000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2355000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>999000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3748000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4494000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4487000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6477000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>4491000</v>
       </c>
       <c r="U58" s="3">
         <v>4491000</v>
       </c>
       <c r="V58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="W58" s="3">
         <v>2499000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4998000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9797000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3498000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17261000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14445000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13461000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12849000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15574000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15169000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13680000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13372000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15217000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14192000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12852000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13059000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14641000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13556000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12896000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13251000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15292000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14104000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12874000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12441000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14635000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13782000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11811000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34819000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19511000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20833000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18881000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23071000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24164000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20250000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21347000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18748000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17200000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15740000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14592000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18875000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18630000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17986000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20315000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19562000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19124000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17968000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15494000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20226000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24178000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15790000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75480000</v>
+      </c>
+      <c r="E61" s="3">
         <v>72110000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>72165000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>73433000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75970000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75995000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>63541000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>63531000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67769000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>69209000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49299000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>50643000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50684000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>51656000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51672000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51561000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>54386000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>56128000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>55145000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>57119000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>47355000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>47132000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>49518000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25459000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23444000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23857000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24241000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25013000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24996000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24681000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16520000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16889000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16312000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16784000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17023000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17651000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16060000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15542000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15387000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15846000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15726000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16816000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9849000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9650000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9435000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9051000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,8 +4579,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4505,8 +4656,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4579,82 +4733,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>136184000</v>
+      </c>
+      <c r="E66" s="3">
         <v>115517000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117340000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>116998000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124465000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>125869000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109209000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102097000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104055000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103364000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82469000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82880000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87796000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86924000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>85724000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87746000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90291000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91479000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90412000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>82894000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>77638000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>81131000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>74767000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4681,8 +4841,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4755,8 +4916,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4829,8 +4993,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4903,8 +5070,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4977,82 +5147,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31134000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31336000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33147000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12022000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19111000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20037000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28296000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28586000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27598000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25576000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5125,8 +5301,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5199,8 +5378,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5273,82 +5455,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5875000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6220000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8696000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5238000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8900000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7917000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9491000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12074000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14235000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15563000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18433000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21785000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23714000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30572000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38067000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46372000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47789000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>55868000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>55959000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>53860000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>50615000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5421,161 +5609,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3189000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2319000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2457000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4032000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5021000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2442000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2251000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3116000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2571000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2311000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2137000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3740000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2745000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2333000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2265000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3276000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2214000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2144000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3232000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2239000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5602,82 +5799,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E83" s="3">
         <v>831000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>775000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>759000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>757000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>752000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>732000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>731000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>701000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>722000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>748000</v>
       </c>
       <c r="N83" s="3">
         <v>748000</v>
       </c>
       <c r="O83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="P83" s="3">
         <v>750000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>754000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>741000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>704000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>720000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>702000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>699000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>688000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>696000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>719000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>656000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5750,8 +5951,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5824,8 +6028,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5898,8 +6105,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5972,8 +6182,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6046,82 +6259,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6394000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3985000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3845000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5391000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4842000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3704000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1388000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5953000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3614000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3012000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>513000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6000000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4422000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2861000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>546000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6722000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4660000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3310000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>850000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6566000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4466000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2699000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6148,82 +6367,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1719000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1423000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1101000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-925000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-717000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-414000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-568000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-436000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-433000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-396000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-349000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-386000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-413000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-443000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-421000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-383000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-378000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-286000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-599000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-473000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-525000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-440000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6296,8 +6519,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6370,82 +6596,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29436000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1161000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2432000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10730000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-781000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3852000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>480000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1233000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12386000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7906000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13199000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1920000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3532000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3160000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-728000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6472,82 +6704,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-860000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-854000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-855000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-861000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-887000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-917000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-699000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-717000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-730000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-740000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-768000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-767000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-795000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-806000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-670000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-714000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-742000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-778000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-783000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-791000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-788000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-787000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-612000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6620,8 +6856,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6694,8 +6933,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6768,226 +7010,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12310000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4026000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1579000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6798000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14133000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4938000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3287000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-940000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-97000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>46000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-116000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-181000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>48000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>129000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>39000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>232000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-81000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-34000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>75000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-74000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-86000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-228000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>144000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-89000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>230000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>129000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>125000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10935000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1299000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4744000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7777000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>725000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13410000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-711000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10569000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5794000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3896000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2133000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-463000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2036000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1156000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ORCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12275000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11445000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11840000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10513000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10360000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9728000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11227000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10085000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9800000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9367000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10439000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9796000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9614000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9218000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11137000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9614000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9562000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9193000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11014000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9676000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9589000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9104000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10893000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9205000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3358000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3037000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2397000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2218000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2159000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2103000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2122000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1915000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1939000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1880000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1969000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1964000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2048000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1957000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2063000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1976000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2001000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1953000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2173000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2881000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2843000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2777000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2442000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1885000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8917000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8408000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9443000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8295000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8201000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7625000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9105000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8170000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7861000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7487000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8470000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7832000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7566000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7261000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9074000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7638000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7561000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7240000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8841000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6795000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6746000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6327000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8451000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7320000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,85 +1030,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2093000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1965000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1816000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1754000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1684000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1715000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1928000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1601000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1589000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1479000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1531000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1562000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1426000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1475000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1564000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1543000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1496000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1473000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1572000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1608000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1521000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1172,162 +1188,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E14" s="3">
         <v>185000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>108000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4699000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>59000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>125000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>79000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>172000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>193000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>81000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>67000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>54000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>103000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>183000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>39000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>161000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>104000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>102000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>94000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>309000</v>
-      </c>
-      <c r="X14" s="3">
-        <v>136000</v>
       </c>
       <c r="Y14" s="3">
         <v>136000</v>
       </c>
       <c r="Z14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="AA14" s="3">
         <v>191000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E15" s="3">
         <v>919000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>268000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>279000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>299000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>303000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>342000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>347000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>345000</v>
       </c>
       <c r="L15" s="3">
         <v>345000</v>
       </c>
       <c r="M15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="N15" s="3">
         <v>365000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>407000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>414000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>424000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>407000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>424000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>434000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>415000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>394000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>400000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>411000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>441000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>397000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1352,162 +1377,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9204000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8822000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7338000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6691000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11184000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6301000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6686000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6207000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6217000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6156000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6131000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6268000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6431000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6341000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6880000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6215000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6461000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6415000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6853000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6361000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6550000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6355000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6819000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6246000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3071000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2623000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4502000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3822000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-824000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3427000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4541000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3878000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3583000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3211000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4308000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3528000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3183000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2877000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4257000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3399000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3101000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2778000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4161000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3315000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3039000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2749000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4074000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2959000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1535,393 +1567,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-180000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-174000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-315000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>312000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>92000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>99000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>134000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>198000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>192000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>291000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>294000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>409000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>262000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>220000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>168000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>189000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4498000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3909000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5159000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4282000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-58000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4143000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5605000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4593000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4303000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3910000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4997000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4280000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4023000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3726000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5145000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4338000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3997000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3789000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5157000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4423000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3989000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3665000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4961000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3804000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>856000</v>
+      </c>
+      <c r="E22" s="3">
         <v>787000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>704000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>667000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>679000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>705000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>697000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>585000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>614000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>579000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>456000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>465000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>494000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>525000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>509000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>519000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>529000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>548000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>533000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>475000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>469000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>481000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>450000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2144000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1656000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3624000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2840000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2681000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4156000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3276000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2972000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2595000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3696000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3076000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2810000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2482000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3866000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3088000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2774000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2540000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3907000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3191000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2826000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2500000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3761000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2698000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E24" s="3">
         <v>108000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>435000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>521000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-249000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>224000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>124000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>530000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>344000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>580000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>505000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>499000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>345000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>126000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>579000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>441000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>428000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>632000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>367000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>612000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>356000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>529000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>459000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1997,162 +2045,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1548000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3189000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2319000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2457000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4032000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5021000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2442000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2251000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3116000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2571000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2311000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3740000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2509000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2333000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2112000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3275000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2824000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2214000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2144000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3232000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2239000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1548000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3189000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2319000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2457000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4032000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5021000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2442000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2251000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3116000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2571000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2311000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3740000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2509000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2333000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2112000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3275000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2824000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2214000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2144000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3232000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2239000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2228,8 +2285,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2257,12 +2317,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2276,28 +2336,28 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>236000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>153000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2305,8 +2365,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2382,8 +2445,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2459,162 +2525,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E32" s="3">
         <v>180000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>174000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>315000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-312000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-92000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-134000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-198000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-192000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-291000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-294000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-409000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-262000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-220000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-168000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1548000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3189000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2319000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2457000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4032000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5021000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2442000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2251000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3116000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2571000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2311000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3740000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2745000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2333000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2265000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3276000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2214000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2144000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3232000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2239000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2690,167 +2765,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1548000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3189000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2319000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2457000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4032000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5021000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2442000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2251000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3116000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2571000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2311000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3740000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2745000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2333000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2265000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3276000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2214000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2144000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3232000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2239000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2878,8 +2962,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2907,262 +2992,272 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6813000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10448000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21383000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22682000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17938000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23059000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30098000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22321000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28001000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27276000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37239000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23829000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24540000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31083000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20514000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14720000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10824000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18455000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21620000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19487000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>21310000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21321000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>21784000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19748000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E42" s="3">
         <v>772000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>519000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>707000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4900000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16251000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16456000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13543000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10592000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15003000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5818000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2029000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2904000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4621000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17313000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25310000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38567000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>41639000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>45641000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50968000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>50270000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>45576000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>44294000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>39604000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6197000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5937000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5953000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4588000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4462000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4482000</v>
       </c>
-      <c r="I43" s="3">
-        <v>6207000</v>
-      </c>
       <c r="J43" s="3">
+        <v>5409000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4637000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4423000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4576000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6329000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4162000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4050000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3820000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5910000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3993000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3975000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3729000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5938000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3902000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3798000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3591000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5300000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3721000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>24</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>142000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>24</v>
@@ -3170,11 +3265,11 @@
       <c r="L44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="3">
         <v>211000</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>24</v>
@@ -3182,11 +3277,11 @@
       <c r="P44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="3">
         <v>320000</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>24</v>
@@ -3194,183 +3289,192 @@
       <c r="T44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V44" s="3">
         <v>398000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>496000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>436000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>312000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>300000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>391000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4014000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3847000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3778000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3698000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3778000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3325000</v>
       </c>
-      <c r="I45" s="3">
-        <v>2664000</v>
-      </c>
       <c r="J45" s="3">
+        <v>3604000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3243000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3235000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3084000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2543000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3422000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3046000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2860000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2329000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3594000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3572000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3186000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5986000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2879000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2731000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2535000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2837000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2547000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17561000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21004000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31633000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31675000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31078000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>47117000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55567000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43744000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46251000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49939000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52140000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33442000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34540000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42384000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46386000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47617000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>56938000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>67009000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>76159000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>77732000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>78545000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>73335000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>74515000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>66011000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3446,162 +3550,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14351000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12280000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9716000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8609000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8029000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7610000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7049000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6816000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6627000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6401000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9044000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8048000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8170000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8264000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6252000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6197000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6003000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5918000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5897000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5904000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5868000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5586000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5315000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5070000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73106000</v>
+      </c>
+      <c r="E49" s="3">
         <v>74128000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45251000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45521000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45723000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46043000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46365000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46708000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46938000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47272000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47507000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47869000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>48302000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>48594000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>49058000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49454000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49881000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49997000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>50425000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>49365000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>49758000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>50206000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>50724000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>50292000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3677,8 +3790,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3754,85 +3870,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23451000</v>
+      </c>
+      <c r="E52" s="3">
         <v>22897000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22697000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22839000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22067000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22154000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22126000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20841000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10198000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9934000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6747000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7345000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7431000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6987000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7013000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6170000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5496000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5434000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5370000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5200000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4591000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4470000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4437000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4009000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3908,85 +4030,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>128469000</v>
+      </c>
+      <c r="E54" s="3">
         <v>130309000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109297000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108644000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106897000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122924000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>131107000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118109000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110014000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113546000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115438000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96704000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98443000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106229000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108709000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>109438000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>118318000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>128358000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>137851000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>138201000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>138762000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>133597000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>134991000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>125382000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4014,8 +4142,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4043,470 +4172,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1461000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1317000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1124000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1034000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>749000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>745000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>812000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>724000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>534000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>637000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>533000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>534000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>486000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>580000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>603000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>587000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>527000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>529000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>603000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>554000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>593000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>599000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>481000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9746000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16097000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3749000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6248000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4998000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6748000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8250000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5758000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7251000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2997000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2371000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2355000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>999000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3748000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4494000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4487000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6477000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>4491000</v>
       </c>
       <c r="V58" s="3">
         <v>4491000</v>
       </c>
       <c r="W58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="X58" s="3">
         <v>2499000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4998000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9797000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3498000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15713000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17261000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14445000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13461000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12849000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15574000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15169000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13680000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13372000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15217000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14192000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12852000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13059000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14641000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13556000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12896000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13251000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15292000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14104000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12874000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12441000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14635000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13782000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11811000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27106000</v>
+      </c>
+      <c r="E60" s="3">
         <v>34819000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19511000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20833000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18881000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23071000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24164000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20250000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21347000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18748000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17200000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15740000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14592000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18875000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18630000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17986000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20315000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19562000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19124000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17968000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15494000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20226000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24178000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15790000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>81173000</v>
+      </c>
+      <c r="E61" s="3">
         <v>75480000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>72110000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>72165000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>73433000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75970000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75995000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>63541000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>63531000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67769000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>69209000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49299000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50643000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50684000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>51656000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51672000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51561000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>54386000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>56128000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>55145000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>57119000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>47355000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>47132000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>49518000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23966000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25459000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23444000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23857000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24241000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25013000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24996000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24681000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16520000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16889000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16312000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16784000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17023000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17651000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16060000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15542000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15387000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15846000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15726000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16816000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9849000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9650000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9435000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9051000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4582,8 +4730,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4659,8 +4810,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4736,85 +4890,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>132715000</v>
+      </c>
+      <c r="E66" s="3">
         <v>136184000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115517000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117340000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116998000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>124465000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>125869000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109209000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102097000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104055000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103364000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82469000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82880000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87796000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86924000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>85724000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87746000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90291000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91479000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90412000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>82894000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>77638000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>81131000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>74767000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4842,8 +5002,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4919,8 +5080,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4996,8 +5160,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5073,8 +5240,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5150,85 +5320,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30617000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31134000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31336000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33147000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5107000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12022000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19111000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20037000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28296000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28586000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27598000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>25576000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5304,8 +5480,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5381,8 +5560,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5458,85 +5640,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4246000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5875000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6220000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8696000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5238000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8900000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7917000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9491000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12074000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14235000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15563000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18433000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21785000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23714000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30572000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38067000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46372000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47789000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>55868000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>55959000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>53860000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>50615000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5612,167 +5800,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1548000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3189000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2319000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2457000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4032000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5021000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2442000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2251000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3116000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2571000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2311000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3740000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2745000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2333000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2265000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3276000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2214000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2144000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3232000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2239000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5800,85 +5997,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1466000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>831000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>775000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>759000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>757000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>752000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>732000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>731000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>701000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>722000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>748000</v>
       </c>
       <c r="O83" s="3">
         <v>748000</v>
       </c>
       <c r="P83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>750000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>754000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>741000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>704000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>720000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>702000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>699000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>688000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>696000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>719000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>656000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5954,8 +6155,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6031,8 +6235,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6108,8 +6315,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6185,8 +6395,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6262,85 +6475,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6394000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3985000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3845000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5391000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4842000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3704000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1388000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5953000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3614000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3012000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>513000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6000000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4422000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2861000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>546000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6722000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4660000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3310000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>850000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6566000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4466000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2699000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6368,85 +6587,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2435000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1719000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1423000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1101000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-925000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-717000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-414000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-568000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-436000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-433000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-396000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-349000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-386000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-413000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-443000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-421000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-383000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-378000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-286000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-599000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-473000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-525000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-440000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6522,8 +6745,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6599,85 +6825,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2658000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29436000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1161000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2432000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10730000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-781000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3852000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>480000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1233000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12386000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7906000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>13199000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1920000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3532000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3160000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-728000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6705,85 +6937,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-860000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-854000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-855000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-861000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-887000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-917000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-699000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-717000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-730000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-740000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-768000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-767000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-795000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-806000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-670000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-714000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-742000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-778000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-783000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-791000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-788000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-787000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-612000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6859,8 +7095,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6936,8 +7175,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7013,235 +7255,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1855000</v>
+      </c>
+      <c r="E100" s="3">
         <v>12310000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4026000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1579000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6798000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14133000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4938000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3287000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-940000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-203000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-97000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>46000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-116000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-181000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>129000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>39000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>232000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-81000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-34000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-73000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>75000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-74000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-86000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-228000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>144000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-89000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>230000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>129000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>125000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3635000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10935000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1299000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4744000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7777000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>725000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13410000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-711000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10569000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5794000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3896000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2133000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-463000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2036000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1156000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,356 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12398000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12275000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11445000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11840000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10513000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10360000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9728000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11227000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10085000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9800000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9367000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10439000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9796000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9614000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9218000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11137000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9614000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9562000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9193000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11014000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9676000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9589000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9104000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10893000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9205000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3439000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3358000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3037000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2397000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2218000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2159000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2103000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2122000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1915000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1939000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1880000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1969000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1964000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2048000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1957000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2063000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1976000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2001000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1953000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2173000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2881000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2843000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2777000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2442000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1885000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8959000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8917000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8408000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9443000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8295000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8201000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7625000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9105000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8170000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7861000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7487000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8470000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7832000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7566000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7261000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9074000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7638000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7561000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7240000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8841000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6795000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6746000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6327000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8451000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7320000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,88 +1043,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2158000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2093000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1965000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1816000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1754000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1684000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1715000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1928000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1601000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1589000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1479000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1531000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1557000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1562000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1426000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1475000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1564000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1543000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1496000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1473000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1572000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1608000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1521000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1191,168 +1207,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E14" s="3">
         <v>199000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>185000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>108000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4699000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>59000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>125000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>79000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>172000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>193000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>81000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>67000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>54000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>103000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>183000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>39000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>161000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>104000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>102000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>94000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>309000</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>136000</v>
       </c>
       <c r="Z14" s="3">
         <v>136000</v>
       </c>
       <c r="AA14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="AB14" s="3">
         <v>191000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>886000</v>
+      </c>
+      <c r="E15" s="3">
         <v>907000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>919000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>268000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>279000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>299000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>303000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>342000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>347000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>345000</v>
       </c>
       <c r="M15" s="3">
         <v>345000</v>
       </c>
       <c r="N15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="O15" s="3">
         <v>365000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>400000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>407000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>414000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>424000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>407000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>424000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>434000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>415000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>394000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>400000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>411000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>441000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>397000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1378,168 +1403,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9138000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9204000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8822000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7338000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6691000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11184000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6301000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6686000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6207000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6217000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6156000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6131000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6268000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6431000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6341000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6880000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6215000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6461000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6415000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6853000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6361000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6550000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6355000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6819000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6246000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3260000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3071000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2623000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4502000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3822000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-824000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3427000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4541000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3878000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3583000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3211000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4308000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3528000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3183000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2877000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4257000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3399000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3101000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2778000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4161000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3315000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3039000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2749000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4074000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2959000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1568,408 +1600,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-71000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-180000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-174000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-315000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>312000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>92000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>99000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>134000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>198000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>192000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>291000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>294000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>409000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>262000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>220000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>168000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>189000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4684000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4498000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3909000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5159000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4282000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-58000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4143000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5605000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4593000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4303000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3910000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4997000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4280000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4023000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3726000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5145000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4338000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3997000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3789000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5157000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4423000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3989000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3665000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4961000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3804000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>908000</v>
+      </c>
+      <c r="E22" s="3">
         <v>856000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>787000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>704000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>667000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>679000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>705000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>697000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>585000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>614000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>579000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>456000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>465000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>494000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>525000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>509000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>519000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>529000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>548000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>533000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>475000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>469000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>481000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>450000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2218000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2144000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1656000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3624000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2840000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2681000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4156000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3276000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2972000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2595000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3696000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3076000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2810000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2482000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3866000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3088000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2774000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2540000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3907000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3191000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2826000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2500000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3761000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2698000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E24" s="3">
         <v>403000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>108000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>435000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>521000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-249000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>224000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>124000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>530000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>344000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>580000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>505000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>499000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>345000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>126000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>579000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>441000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>428000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>632000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>367000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>612000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>356000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>529000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>459000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2048,168 +2096,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1741000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1548000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3189000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2319000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2457000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4032000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5021000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2442000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2251000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3116000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2571000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2311000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2137000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3740000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2509000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2333000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2112000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3275000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2824000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2214000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2144000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3232000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2239000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1741000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1548000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3189000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2319000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2457000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4032000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5021000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2442000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2251000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3116000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2571000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2311000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2137000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3740000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2509000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2333000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2112000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3275000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2824000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2214000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2144000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3232000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2239000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2288,8 +2345,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2320,12 +2380,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2339,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>236000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>153000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2368,8 +2428,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2448,8 +2511,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2528,168 +2594,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E32" s="3">
         <v>71000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>180000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>174000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>315000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-312000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-99000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-134000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-198000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-192000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-291000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-294000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-409000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-262000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-220000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-168000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1741000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1548000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3189000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2319000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2457000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4032000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5021000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2442000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2251000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3116000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2571000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2311000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2137000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3740000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2745000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2333000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2265000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3276000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2214000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2144000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3232000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2239000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2768,173 +2843,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1741000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1548000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3189000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2319000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2457000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4032000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5021000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2442000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2251000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3116000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2571000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2311000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2137000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3740000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2745000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2333000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2265000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3276000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2214000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2144000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3232000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2239000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2963,8 +3047,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2993,248 +3078,258 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8219000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6813000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10448000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21383000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22682000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17938000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23059000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30098000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22321000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28001000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27276000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37239000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23829000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24540000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31083000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20514000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14720000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10824000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18455000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21620000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19487000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21310000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>21321000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>21784000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>19748000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E42" s="3">
         <v>537000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>772000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>519000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>707000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4900000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16251000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16456000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13543000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10592000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15003000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5818000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2029000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2904000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4621000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17313000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>25310000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>38567000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>41639000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>45641000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>50968000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>50270000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>45576000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>44294000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>39604000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6213000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6197000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5937000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5953000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4588000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4462000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4482000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5409000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4637000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4423000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4576000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6329000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4162000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4050000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3820000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5910000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3993000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3975000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3729000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5938000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3902000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3798000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3591000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5300000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3721000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3259,8 +3354,8 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>24</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>24</v>
@@ -3268,11 +3363,11 @@
       <c r="M44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="3">
         <v>211000</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>24</v>
@@ -3280,11 +3375,11 @@
       <c r="Q44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="3">
         <v>320000</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>24</v>
@@ -3292,189 +3387,198 @@
       <c r="U44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W44" s="3">
         <v>398000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>496000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>436000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>312000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>300000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>391000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3714000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4014000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3847000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3778000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3698000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3778000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3325000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3604000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3243000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3235000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3084000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2543000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3422000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3046000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2860000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2329000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3594000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3572000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3186000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5986000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2879000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2731000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2535000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2837000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2547000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18696000</v>
+      </c>
+      <c r="E46" s="3">
         <v>17561000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21004000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31633000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31675000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31078000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47117000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55567000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43744000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46251000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49939000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52140000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33442000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34540000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42384000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46386000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47617000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>56938000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>67009000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>76159000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>77732000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>78545000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>73335000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>74515000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>66011000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3553,168 +3657,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16345000</v>
+      </c>
+      <c r="E48" s="3">
         <v>14351000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12280000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9716000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8609000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8029000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7610000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7049000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6816000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6627000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6401000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9044000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8048000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8170000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8264000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6252000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6197000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6003000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5918000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5897000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5904000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5868000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5586000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5315000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5070000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72206000</v>
+      </c>
+      <c r="E49" s="3">
         <v>73106000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74128000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45251000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45521000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45723000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46043000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46365000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46708000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46938000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47272000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47507000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47869000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>48302000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48594000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>49058000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49454000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49881000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>49997000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>50425000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>49365000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>49758000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>50206000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>50724000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>50292000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3793,8 +3906,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3873,88 +3989,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24373000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23451000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22897000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22697000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22839000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22067000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22154000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22126000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20841000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10198000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9934000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6747000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7345000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7431000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6987000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7013000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6170000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5496000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5434000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5370000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5200000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4591000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4470000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4437000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4009000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4033,88 +4155,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131620000</v>
+      </c>
+      <c r="E54" s="3">
         <v>128469000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130309000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109297000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108644000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>106897000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122924000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131107000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118109000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110014000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113546000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115438000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96704000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98443000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>106229000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108709000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>109438000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>118318000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>128358000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>137851000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>138201000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>138762000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>133597000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>134991000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>125382000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4143,8 +4271,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4173,488 +4302,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1647000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1461000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1317000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1124000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1034000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>749000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>745000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>812000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>724000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>534000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>637000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>533000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>534000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>486000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>580000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>603000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>587000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>527000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>529000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>603000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>554000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>593000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>599000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>481000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5415000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9746000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16097000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3749000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6248000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4998000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6748000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8250000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5758000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7251000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2997000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2371000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2355000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>999000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3748000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4494000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4487000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6477000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>4491000</v>
       </c>
       <c r="W58" s="3">
         <v>4491000</v>
       </c>
       <c r="X58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2499000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4998000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9797000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3498000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15855000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15713000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17261000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14445000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13461000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12849000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15574000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15169000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13680000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13372000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15217000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14192000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12852000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13059000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14641000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13556000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12896000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13251000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15292000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14104000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12874000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12441000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14635000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13782000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11811000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22880000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27106000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34819000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19511000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20833000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18881000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23071000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24164000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20250000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21347000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18748000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17200000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15740000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14592000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18875000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18630000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17986000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20315000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19562000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19124000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17968000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15494000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20226000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24178000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15790000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>86396000</v>
+      </c>
+      <c r="E61" s="3">
         <v>81173000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75480000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>72110000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>72165000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>73433000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75970000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75995000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>63541000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>63531000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>67769000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69209000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49299000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50643000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>50684000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>51656000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51672000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51561000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>54386000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>56128000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>55145000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>57119000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>47355000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>47132000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>49518000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24256000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23966000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25459000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23444000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23857000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24241000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25013000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24996000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24681000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16520000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16889000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16312000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16784000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17023000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17651000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16060000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15542000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15387000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15846000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15726000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16816000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9849000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9650000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9435000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9051000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4733,8 +4881,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4813,8 +4964,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4893,88 +5047,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134041000</v>
+      </c>
+      <c r="E66" s="3">
         <v>132715000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>136184000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>115517000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117340000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>116998000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124465000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>125869000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109209000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102097000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>104055000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>103364000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82469000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82880000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87796000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86924000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>85724000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87746000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90291000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91479000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90412000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>82894000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>77638000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>81131000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>74767000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5003,8 +5163,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5083,8 +5244,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5163,8 +5327,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5243,8 +5410,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5323,88 +5493,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29721000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30617000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31134000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31336000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33147000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5107000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12022000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19111000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20037000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28296000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28586000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27598000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>25576000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5483,8 +5659,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5563,8 +5742,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5643,88 +5825,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2421000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4246000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5875000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6220000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8696000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5238000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8900000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7917000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9491000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12074000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14235000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15563000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18433000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21785000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23714000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30572000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38067000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46372000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47789000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>55868000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>55959000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>53860000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>50615000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5803,173 +5991,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1896000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1741000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1548000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3189000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2319000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2457000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4032000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5021000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2442000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2251000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3116000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2571000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2311000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2137000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3740000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2745000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2333000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2265000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3276000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2214000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2144000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3232000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2239000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5998,88 +6195,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1558000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1498000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1466000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>831000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>775000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>759000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>757000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>752000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>732000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>731000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>701000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>722000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>748000</v>
       </c>
       <c r="P83" s="3">
         <v>748000</v>
       </c>
       <c r="Q83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="R83" s="3">
         <v>750000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>754000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>741000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>704000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>720000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>702000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>699000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>688000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>696000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>719000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>656000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6158,8 +6359,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6238,8 +6442,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6318,8 +6525,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6398,8 +6608,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6478,88 +6691,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E89" s="3">
         <v>849000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6394000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3985000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3845000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5391000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4842000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3704000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1388000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5953000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3614000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3012000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>513000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6000000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4422000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2861000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>546000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6722000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4660000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3310000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>850000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6566000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4466000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2699000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6588,88 +6807,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2628000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1719000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1423000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1101000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-925000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-717000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-414000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-568000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-436000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-433000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-396000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-349000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-386000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-413000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-443000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-421000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-383000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-378000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-286000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-599000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-473000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-525000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-440000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6748,8 +6971,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6828,88 +7054,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2778000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2658000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29436000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1161000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2432000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10730000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-781000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3852000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>480000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12386000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7906000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>13199000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1920000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3532000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3160000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-728000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6938,8 +7170,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6947,79 +7180,82 @@
         <v>-863000</v>
       </c>
       <c r="E96" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-860000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-854000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-855000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-861000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-887000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-917000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-699000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-717000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-730000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-740000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-768000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-767000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-795000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-806000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-670000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-714000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-742000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-778000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-783000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-791000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-788000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-787000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-612000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7098,8 +7334,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7178,8 +7417,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7258,244 +7500,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1855000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12310000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4026000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1579000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6798000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14133000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4938000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3287000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-940000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>29000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-203000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-97000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>46000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-116000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-181000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>48000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>129000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>39000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>232000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-81000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-34000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-73000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>75000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-74000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-86000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-228000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>144000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-89000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>230000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>129000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>125000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1406000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3635000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10935000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1299000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4744000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7777000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>725000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13410000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-711000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10569000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5794000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3896000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2133000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-463000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2036000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1156000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,368 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13836000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12398000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12275000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11445000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11840000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10513000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10360000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9728000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11227000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10085000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9800000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9367000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10439000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9796000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9614000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9218000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11137000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9614000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9562000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9193000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11014000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9676000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9589000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9104000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10893000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9205000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3730000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3439000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3358000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3037000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2397000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2218000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2159000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2103000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2122000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1915000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1939000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1880000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1969000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1964000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2048000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1957000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2063000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1976000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2001000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1953000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2173000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2881000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2843000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2777000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2442000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1885000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10106000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8959000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8917000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8408000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9443000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8295000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8201000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7625000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9105000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8170000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7861000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7487000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8470000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7832000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7566000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7261000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9074000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7638000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7561000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7240000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8841000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6795000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6746000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6327000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8451000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7320000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,91 +1056,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2226000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2146000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2158000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2093000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1965000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1816000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1754000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1684000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1715000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1928000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1601000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1589000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1479000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1531000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1557000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1562000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1426000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1475000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1564000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1543000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1496000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1473000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1572000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1608000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1521000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1210,174 +1226,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E14" s="3">
         <v>115000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>199000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>185000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>108000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4699000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>59000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>125000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>79000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>172000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>193000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>81000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>67000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>54000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>103000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>183000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>39000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>161000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>104000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>102000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>94000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>309000</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>136000</v>
       </c>
       <c r="AA14" s="3">
         <v>136000</v>
       </c>
       <c r="AB14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="AC14" s="3">
         <v>191000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E15" s="3">
         <v>886000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>907000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>919000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>268000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>279000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>299000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>303000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>342000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>347000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>345000</v>
       </c>
       <c r="N15" s="3">
         <v>345000</v>
       </c>
       <c r="O15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="P15" s="3">
         <v>365000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>407000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>414000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>424000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>407000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>424000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>434000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>415000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>394000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>400000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>411000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>441000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>397000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1404,174 +1429,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9696000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9138000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9204000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8822000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7338000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6691000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11184000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6301000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6686000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6207000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6217000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6156000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6131000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6268000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6431000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6341000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6880000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6215000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6461000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6415000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6853000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6361000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6550000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6355000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6819000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6246000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4140000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3260000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3071000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2623000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4502000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3822000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-824000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3427000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4541000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3878000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3583000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3211000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4308000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3528000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3183000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2877000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4257000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3399000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3101000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2778000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4161000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3315000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3039000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2749000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4074000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2959000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1601,423 +1633,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-134000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-71000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-180000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-174000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-315000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>312000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-33000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>92000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>99000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>134000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>198000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>192000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>291000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>294000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>409000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>262000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>220000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>168000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>189000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5650000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4684000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4498000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3909000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5159000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4282000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-58000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4143000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5605000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4593000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4303000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3910000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4997000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4280000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4023000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3726000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5145000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4338000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3997000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3789000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5157000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4423000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3989000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3665000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4961000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3804000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E22" s="3">
         <v>908000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>856000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>787000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>704000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>667000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>679000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>705000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>697000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>585000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>614000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>579000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>456000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>465000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>494000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>525000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>509000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>519000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>529000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>548000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>533000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>475000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>469000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>481000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>450000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3109000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2218000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2144000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1656000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3624000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2840000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2681000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4156000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3276000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2972000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2595000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3696000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3076000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2810000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2482000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3866000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3088000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2774000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2540000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3907000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3191000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2826000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2500000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3761000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2698000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E24" s="3">
         <v>322000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>403000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>108000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>435000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>521000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-249000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>224000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>124000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>530000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>344000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>580000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>505000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>499000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>345000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>126000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>579000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>441000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>428000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>632000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>367000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>612000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>356000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>529000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>459000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2099,174 +2147,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3319000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1896000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1741000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1548000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3189000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2319000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2457000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4032000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5021000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2442000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2251000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3116000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2311000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2137000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3740000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2509000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2333000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2112000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3275000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2824000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2214000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2144000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3232000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2239000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3319000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1896000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1741000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1548000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3189000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2319000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2457000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4032000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5021000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2442000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2251000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3116000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2311000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2137000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3740000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2509000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2333000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2112000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3275000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2824000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2214000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2144000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3232000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2239000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2348,8 +2405,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,12 +2443,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2402,28 +2462,28 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>236000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>153000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2431,8 +2491,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2514,8 +2577,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2597,174 +2663,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E32" s="3">
         <v>134000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>71000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>180000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>174000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>315000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-312000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>33000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-92000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-99000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-134000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-198000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-192000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-291000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-294000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-409000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-262000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-220000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-168000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3319000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1896000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1741000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1548000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3189000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2319000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2457000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4032000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5021000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2442000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2251000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3116000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2311000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2137000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3740000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2745000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2333000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2265000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3276000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2214000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2144000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3232000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2239000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2846,179 +2921,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3319000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1896000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1741000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1548000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3189000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2319000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2457000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4032000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5021000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2442000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2251000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3116000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2311000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2137000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3740000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2745000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2333000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2265000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3276000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2214000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2144000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3232000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2239000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3048,8 +3132,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3079,257 +3164,267 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9765000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8219000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6813000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10448000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21383000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22682000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17938000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23059000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30098000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22321000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28001000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27276000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37239000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23829000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24540000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31083000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20514000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14720000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10824000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18455000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>21620000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19487000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>21310000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>21321000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>21784000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>19748000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E42" s="3">
         <v>550000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>537000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>772000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>519000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>707000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4900000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16251000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16456000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13543000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10592000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15003000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5818000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2029000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2904000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4621000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17313000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>25310000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>38567000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>41639000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>45641000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>50968000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>50270000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>45576000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>44294000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>39604000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6915000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6213000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6197000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5937000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5953000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4588000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4462000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4482000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5409000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4637000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4423000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4576000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6329000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4162000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4050000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3820000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5910000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3993000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3975000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3729000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5938000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3902000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3798000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3591000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5300000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3721000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3357,8 +3452,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>24</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>24</v>
@@ -3366,11 +3461,11 @@
       <c r="N44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="3">
         <v>211000</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>24</v>
@@ -3378,11 +3473,11 @@
       <c r="R44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="3">
         <v>320000</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>24</v>
@@ -3390,195 +3485,204 @@
       <c r="V44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X44" s="3">
         <v>398000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>496000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>436000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>312000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>300000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>391000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3902000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3714000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4014000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3847000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3778000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3698000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3778000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3325000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3604000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3243000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3235000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3084000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2543000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3422000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3046000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2860000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2329000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3594000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3572000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3186000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5986000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2879000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2731000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2535000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2837000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2547000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21004000</v>
+      </c>
+      <c r="E46" s="3">
         <v>18696000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17561000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21004000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31633000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31675000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31078000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47117000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55567000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43744000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46251000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>49939000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52140000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33442000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34540000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42384000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46386000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47617000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>56938000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>67009000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>76159000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>77732000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>78545000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>73335000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>74515000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>66011000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3660,174 +3764,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17069000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16345000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14351000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12280000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9716000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8609000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8029000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7610000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7049000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6816000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6627000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6401000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9044000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8048000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8170000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8264000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6252000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6197000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6003000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5918000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5897000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5904000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5868000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5586000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5315000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5070000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72098000</v>
+      </c>
+      <c r="E49" s="3">
         <v>72206000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73106000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74128000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45251000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45521000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45723000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46043000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46365000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46708000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46938000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47272000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47507000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47869000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48302000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>48594000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>49058000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49454000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>49881000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>49997000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50425000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>49365000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>49758000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>50206000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>50724000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>50292000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3909,8 +4022,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3992,91 +4108,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24213000</v>
+      </c>
+      <c r="E52" s="3">
         <v>24373000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23451000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22897000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22697000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22839000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22067000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22154000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22126000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20841000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10198000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9934000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6747000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7345000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7431000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6987000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7013000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6170000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5496000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5434000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5370000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5200000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4591000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4470000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4437000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4009000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4158,91 +4280,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134384000</v>
+      </c>
+      <c r="E54" s="3">
         <v>131620000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>128469000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>130309000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109297000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108644000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106897000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122924000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131107000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118109000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110014000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113546000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115438000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96704000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98443000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>106229000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108709000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>109438000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>118318000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>128358000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>137851000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>138201000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>138762000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>133597000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>134991000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>125382000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4272,8 +4400,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4303,506 +4432,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1610000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1647000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1461000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1317000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1124000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1034000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>749000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>745000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>812000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>724000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>534000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>637000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>533000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>534000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>486000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>580000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>603000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>587000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>527000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>529000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>603000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>554000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>593000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>599000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>481000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4061000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5415000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9746000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16097000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3749000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6248000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4998000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6748000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8250000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5758000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7251000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2997000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2371000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2355000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>999000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3748000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4494000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4487000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6477000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>4491000</v>
       </c>
       <c r="X58" s="3">
         <v>4491000</v>
       </c>
       <c r="Y58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2499000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4998000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9797000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3498000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17825000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15855000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15713000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17261000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14445000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13461000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12849000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15574000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15169000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13680000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13372000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15217000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14192000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12852000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13059000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14641000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13556000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12896000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13251000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15292000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14104000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12874000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12441000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14635000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13782000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11811000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23090000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22880000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27106000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34819000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19511000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20833000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18881000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23071000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24164000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20250000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21347000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18748000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17200000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15740000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14592000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18875000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18630000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17986000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20315000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19562000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19124000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17968000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15494000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20226000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>24178000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15790000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>86420000</v>
+      </c>
+      <c r="E61" s="3">
         <v>86396000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>81173000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>75480000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>72110000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>72165000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>73433000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75970000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75995000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>63541000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>63531000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>67769000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>69209000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49299000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>50643000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>50684000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>51656000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51672000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51561000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>54386000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>56128000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>55145000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>57119000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>47355000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>47132000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>49518000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23318000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24256000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23966000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25459000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23444000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23857000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24241000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25013000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24996000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24681000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16520000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16889000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16312000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16784000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17023000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17651000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16060000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15542000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15387000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15846000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15726000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16816000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9849000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9650000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9435000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9051000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4884,8 +5032,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4967,8 +5118,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5050,91 +5204,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>133311000</v>
+      </c>
+      <c r="E66" s="3">
         <v>134041000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>132715000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>136184000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>115517000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117340000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>116998000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124465000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125869000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109209000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102097000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104055000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>103364000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82469000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82880000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87796000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86924000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>85724000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87746000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90291000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>91479000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90412000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>82894000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>77638000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>81131000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>74767000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5164,8 +5324,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5247,8 +5408,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5330,8 +5494,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5413,8 +5580,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5496,91 +5666,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27620000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29721000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30617000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31134000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31336000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33147000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5107000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12022000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19111000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20037000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28296000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28586000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>27598000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>25576000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5662,8 +5838,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5745,8 +5924,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5828,91 +6010,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2421000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4246000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5875000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6220000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8696000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5238000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8900000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7917000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9491000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12074000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14235000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15563000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18433000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21785000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23714000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30572000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38067000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>46372000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>47789000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>55868000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>55959000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>53860000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>50615000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5994,179 +6182,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3319000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1896000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1741000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1548000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3189000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2319000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2457000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4032000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5021000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2442000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2251000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3116000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2311000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2137000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3740000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2745000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2333000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2265000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3276000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2214000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2144000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3232000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2239000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6196,91 +6393,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1558000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1498000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1466000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>831000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>775000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>759000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>757000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>752000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>732000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>731000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>701000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>722000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>748000</v>
       </c>
       <c r="Q83" s="3">
         <v>748000</v>
       </c>
       <c r="R83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="S83" s="3">
         <v>750000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>754000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>741000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>704000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>720000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>702000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>699000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>688000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>696000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>719000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>656000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6362,8 +6563,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6445,8 +6649,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6528,8 +6735,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6611,8 +6821,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6694,91 +6907,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5647000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4275000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>849000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6394000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3985000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3845000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5391000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4842000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3704000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1388000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5953000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3614000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3012000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>513000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6000000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4422000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2861000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>546000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6722000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4660000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3310000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>850000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6566000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4466000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2699000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6808,91 +7027,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1913000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2628000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1719000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1423000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1101000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-925000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-717000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-414000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-568000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-436000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-433000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-396000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-349000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-386000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-413000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-443000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-421000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-383000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-378000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-286000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-599000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-473000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-525000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-440000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6974,8 +7197,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7057,91 +7283,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1612000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2778000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2658000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29436000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2432000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10730000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-781000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3852000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>480000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1233000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>12386000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7906000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>13199000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1920000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3532000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3160000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-728000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7171,91 +7403,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-863000</v>
+        <v>-1082000</v>
       </c>
       <c r="E96" s="3">
         <v>-863000</v>
       </c>
       <c r="F96" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-860000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-854000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-855000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-861000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-887000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-917000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-699000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-717000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-730000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-740000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-768000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-767000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-795000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-806000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-670000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-714000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-742000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-778000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-783000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-791000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-788000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-787000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-612000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7337,8 +7573,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7420,8 +7659,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7503,253 +7745,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2440000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-105000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1855000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12310000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4026000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1579000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6798000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14133000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4938000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3287000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-940000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E101" s="3">
         <v>14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>29000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-203000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-97000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>46000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-116000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-181000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>48000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>129000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>39000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>232000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-81000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-73000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>75000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-74000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-86000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-228000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>144000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-89000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>230000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>129000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>125000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1406000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3635000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10935000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1299000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4744000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7777000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>725000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13410000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-711000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10569000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5794000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3896000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2133000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-463000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2036000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1156000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-10022000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,380 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12453000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13836000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12398000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12275000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11445000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11840000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10513000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10360000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9728000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11227000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10085000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9800000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9367000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10439000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9796000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9614000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9218000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11137000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9614000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9562000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9193000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11014000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9676000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9589000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9104000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10893000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9205000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9035000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3730000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3439000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3358000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3037000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2397000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2218000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2159000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2103000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2122000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1915000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1939000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1880000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1969000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1964000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2048000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1957000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2063000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1976000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2001000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1953000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2173000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2881000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2843000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2777000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2442000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1885000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1790000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8843000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10106000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8959000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8917000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8408000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9443000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8295000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8201000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7625000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9105000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8170000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7861000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7487000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8470000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7832000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7566000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7261000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9074000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7638000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7561000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7240000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8841000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6795000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6746000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6327000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8451000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7320000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7245000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,94 +1069,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2216000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2226000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2146000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2158000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2093000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1965000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1816000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1754000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1684000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1715000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1928000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1601000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1589000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1479000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1531000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1557000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1562000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1426000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1475000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1564000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1543000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1496000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1473000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1572000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1608000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1521000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1510000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1229,180 +1245,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E14" s="3">
         <v>181000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>115000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>199000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>185000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>108000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4699000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>125000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>79000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>172000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>193000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>81000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>67000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>54000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>103000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>183000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>39000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>161000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>104000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>102000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>94000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>309000</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>136000</v>
       </c>
       <c r="AB14" s="3">
         <v>136000</v>
       </c>
       <c r="AC14" s="3">
+        <v>136000</v>
+      </c>
+      <c r="AD14" s="3">
         <v>191000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>126000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E15" s="3">
         <v>870000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>886000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>907000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>919000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>268000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>279000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>299000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>303000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>342000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>347000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>345000</v>
       </c>
       <c r="O15" s="3">
         <v>345000</v>
       </c>
       <c r="P15" s="3">
+        <v>345000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>365000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>407000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>414000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>424000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>407000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>424000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>434000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>415000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>394000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>400000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>411000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>441000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>397000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>302000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1430,180 +1455,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9157000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9696000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9138000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9204000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8822000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7338000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6691000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11184000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6301000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6686000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6207000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6217000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6156000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6131000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6268000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6431000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6341000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6880000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6215000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6461000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6415000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6853000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6361000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6550000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6355000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6819000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6246000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5998000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3296000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4140000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3260000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3071000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2623000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4502000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3822000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-824000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3427000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4541000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3878000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3583000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3211000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4308000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3528000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3183000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2877000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4257000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3399000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3101000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2778000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4161000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3315000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3039000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2749000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4074000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2959000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3037000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1634,438 +1666,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-76000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-134000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-71000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-180000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-174000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-315000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>312000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>92000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>99000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>134000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>198000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>192000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>291000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>294000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>409000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>262000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>220000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>168000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>189000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4722000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5650000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4684000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4498000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3909000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5159000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4282000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-58000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4143000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5605000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4593000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4303000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3910000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4997000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4280000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4023000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3726000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5145000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4338000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3997000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3789000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5157000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4423000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3989000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3665000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4961000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3804000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3679000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E22" s="3">
         <v>955000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>908000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>856000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>787000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>704000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>667000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>679000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>705000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>697000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>585000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>614000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>579000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>456000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>465000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>494000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>525000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>509000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>519000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>529000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>548000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>533000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>475000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>469000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>481000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>450000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2375000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3109000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2218000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2144000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1656000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3624000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2840000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1496000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2681000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4156000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3276000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2972000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2595000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3696000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3076000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2810000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2482000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3866000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3088000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2774000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2540000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3907000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3191000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2826000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2500000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3761000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2698000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2685000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-210000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>322000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>403000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>108000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>435000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>521000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-249000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>224000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>124000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1745000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>530000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>344000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>580000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>505000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>499000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>345000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>126000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>579000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>441000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>428000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>632000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>367000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>612000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>356000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>529000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>459000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2150,180 +2198,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3319000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1896000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1741000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1548000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3189000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2319000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2457000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4032000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5021000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2442000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2251000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3116000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2571000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2311000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2137000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3740000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2509000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2333000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2112000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3275000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2824000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2214000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2144000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3232000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2239000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3319000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1896000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1741000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1548000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3189000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2319000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2457000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4032000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5021000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2442000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2251000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3116000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2571000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2311000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2137000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3740000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2509000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2333000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2112000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3275000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2824000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2214000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2144000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3232000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2239000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2408,8 +2465,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,12 +2506,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2465,28 +2525,28 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>236000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>153000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-6871000</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>24</v>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>24</v>
@@ -2494,8 +2554,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2580,8 +2643,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2666,180 +2732,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E32" s="3">
         <v>76000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>134000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>71000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>180000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>174000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>315000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-312000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>33000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-92000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-99000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-134000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-198000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-192000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-291000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-294000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-409000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-262000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-220000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-168000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-189000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-99000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3319000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1896000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1741000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1548000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3189000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2319000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2457000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4032000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5021000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2442000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2251000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3116000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2571000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2311000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2137000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3740000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2745000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2333000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2265000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3276000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2214000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2144000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3232000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2239000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2924,185 +2999,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3319000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1896000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1741000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1548000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3189000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2319000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2457000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4032000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5021000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2442000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2251000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3116000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2571000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2311000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2137000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3740000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2745000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2333000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2265000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3276000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2214000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2144000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3232000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2239000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3133,8 +3217,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3165,266 +3250,276 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11613000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9765000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8219000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6813000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10448000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21383000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22682000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17938000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23059000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30098000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22321000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28001000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27276000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37239000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23829000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24540000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31083000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20514000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14720000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10824000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18455000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21620000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19487000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>21310000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>21321000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>21784000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>19748000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>18592000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E42" s="3">
         <v>422000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>550000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>537000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>772000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>519000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>707000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4900000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16251000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16456000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13543000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10592000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15003000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5818000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2029000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2904000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4621000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17313000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>25310000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38567000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>41639000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>45641000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>50968000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>50270000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>45576000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>44294000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>39604000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>39614000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6519000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6915000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6213000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6197000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5937000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5953000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4588000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4462000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4482000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5409000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4637000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4423000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4576000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6329000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4162000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4050000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3820000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5910000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3993000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3975000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3729000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5938000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3902000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3798000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3591000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5300000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3721000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3690000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3455,8 +3550,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>24</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>24</v>
@@ -3464,11 +3559,11 @@
       <c r="O44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="3">
         <v>211000</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>24</v>
@@ -3476,11 +3571,11 @@
       <c r="S44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="3">
         <v>320000</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>24</v>
@@ -3488,201 +3583,210 @@
       <c r="W44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y44" s="3">
         <v>398000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>496000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>436000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>312000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>300000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>391000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3564000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3902000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3714000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4014000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3847000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3778000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3698000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3778000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3325000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3604000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3243000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3235000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3084000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2543000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3422000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3046000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2860000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2329000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3594000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3572000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3186000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5986000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2879000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2731000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2535000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2837000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>2547000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>2511000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22166000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21004000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18696000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17561000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21004000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31633000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31675000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31078000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47117000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55567000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43744000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46251000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>49939000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52140000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33442000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34540000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42384000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46386000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47617000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>56938000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>67009000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>76159000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>77732000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>78545000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>73335000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>74515000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>66011000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>64734000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3767,180 +3871,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17644000</v>
+      </c>
+      <c r="E48" s="3">
         <v>17069000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16345000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14351000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12280000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9716000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8609000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8029000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7610000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7049000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6816000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6627000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6401000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9044000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8048000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8170000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8264000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6252000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6197000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6003000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5918000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5897000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5904000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5868000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5586000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5315000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5070000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4882000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71280000</v>
+      </c>
+      <c r="E49" s="3">
         <v>72098000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>72206000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73106000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74128000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45251000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45521000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45723000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46043000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46365000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46708000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46938000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47272000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47507000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>47869000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>48302000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>48594000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>49058000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>49454000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>49881000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>49997000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>50425000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>49365000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>49758000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>50206000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>50724000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>50292000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>50051000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4025,8 +4138,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4111,94 +4227,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25572000</v>
+      </c>
+      <c r="E52" s="3">
         <v>24213000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24373000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23451000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22897000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22697000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22839000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22067000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22154000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22126000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20841000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10198000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9934000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6747000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7345000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7431000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6987000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7013000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6170000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5496000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5434000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5370000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5200000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4591000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4470000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4437000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4009000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3933000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4283,94 +4405,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>136662000</v>
+      </c>
+      <c r="E54" s="3">
         <v>134384000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131620000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>128469000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>130309000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109297000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108644000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106897000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122924000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>131107000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118109000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110014000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113546000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115438000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96704000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98443000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106229000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108709000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>109438000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>118318000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>128358000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>137851000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>138201000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>138762000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>133597000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>134991000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>125382000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>123600000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4401,8 +4529,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4433,524 +4562,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1204000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1610000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1647000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1461000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1317000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1124000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1034000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>749000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>745000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>812000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>724000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>534000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>637000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>533000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>534000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>486000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>580000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>603000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>587000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>527000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>529000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>603000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>554000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>593000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>599000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>481000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>615000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4499000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4061000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5415000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9746000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16097000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3749000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6248000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4998000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6748000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8250000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5758000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7251000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2997000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2371000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2355000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>999000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3748000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4494000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4487000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6477000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3743000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>4491000</v>
       </c>
       <c r="Y58" s="3">
         <v>4491000</v>
       </c>
       <c r="Z58" s="3">
+        <v>4491000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2499000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4998000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>9797000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3498000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3838000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19824000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17825000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15855000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15713000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17261000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14445000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13461000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12849000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15574000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15169000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13680000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13372000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15217000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14192000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12852000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13059000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14641000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13556000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12896000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13251000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15292000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14104000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12874000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12441000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14635000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13782000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11811000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11894000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25357000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23090000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22880000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27106000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34819000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19511000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20833000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18881000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23071000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24164000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20250000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21347000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18748000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17200000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15740000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14592000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18875000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18630000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17986000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20315000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19562000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19124000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17968000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15494000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20226000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>24178000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15790000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>16347000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>84442000</v>
+      </c>
+      <c r="E61" s="3">
         <v>86420000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>86396000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>81173000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75480000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>72110000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>72165000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>73433000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75970000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75995000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>63541000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>63531000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>67769000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>69209000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49299000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>50643000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>50684000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>51656000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>51672000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>51561000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>54386000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>56128000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>55145000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>57119000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>47355000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>47132000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>49518000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>51427000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24022000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23318000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24256000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23966000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25459000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23444000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23857000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24241000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25013000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24996000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24681000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16520000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16889000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16312000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16784000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17023000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17651000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16060000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15542000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15387000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15846000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15726000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16816000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9849000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9650000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9435000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9051000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>6981000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5035,8 +5183,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5121,8 +5272,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5207,94 +5361,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134292000</v>
+      </c>
+      <c r="E66" s="3">
         <v>133311000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>134041000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>132715000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>136184000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>115517000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117340000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>116998000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124465000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>125869000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109209000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102097000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104055000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>103364000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82469000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82880000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87796000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86924000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>85724000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>87746000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90291000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>91479000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>90412000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>82894000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>77638000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>81131000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>74767000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>75138000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5325,8 +5485,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5411,8 +5572,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5497,8 +5661,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5583,8 +5750,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5669,94 +5839,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26428000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27620000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29721000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30617000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31134000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31336000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33147000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34076000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25679000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20120000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16206000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17095000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15410000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12696000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10771000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9174000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6446000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3496000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1284000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5107000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12022000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19111000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20037000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28296000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>28586000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>27598000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>25576000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>24375000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5841,8 +6017,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5927,8 +6106,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6013,94 +6195,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2370000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1073000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2421000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4246000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5875000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6220000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8696000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10101000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1541000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5238000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8900000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7917000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9491000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12074000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14235000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15563000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18433000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21785000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23714000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30572000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38067000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>46372000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>47789000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>55868000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>55959000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>53860000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>50615000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>48462000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6185,185 +6373,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3319000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1896000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1741000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1548000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3189000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2319000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2457000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4032000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5021000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2442000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2251000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3116000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2571000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2311000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2137000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3740000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2745000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2333000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2265000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3276000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4047000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2214000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2144000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3232000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2239000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2032000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6394,94 +6591,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1586000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1558000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1498000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1466000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>831000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>775000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>759000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>757000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>752000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>732000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>731000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>701000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>722000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>748000</v>
       </c>
       <c r="R83" s="3">
         <v>748000</v>
       </c>
       <c r="S83" s="3">
+        <v>748000</v>
+      </c>
+      <c r="T83" s="3">
         <v>750000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>754000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>741000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>704000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>720000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>702000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>699000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>688000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>696000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>719000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>656000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6566,8 +6767,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6652,8 +6856,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6738,8 +6945,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6824,8 +7034,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6910,94 +7123,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6974000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5647000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4275000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>849000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6394000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3985000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3845000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3682000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5391000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4842000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3704000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1388000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5953000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3614000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3012000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>513000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6000000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4422000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2861000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>546000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6722000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4660000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3310000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>850000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6566000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4466000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2699000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1086000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7028,94 +7247,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1314000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1913000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2628000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2435000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1719000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1423000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1101000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-925000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1062000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-717000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-414000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-568000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-436000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-433000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-396000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-349000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-386000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-413000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-443000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-421000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-383000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-378000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-286000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-599000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-473000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-525000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-440000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-757000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7200,8 +7423,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7286,94 +7512,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1562000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1612000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2778000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2658000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29436000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2432000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10730000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-781000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3911000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3384000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3852000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9655000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4256000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>480000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1233000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>12386000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7906000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>13199000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1920000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3532000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3160000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1257000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5710000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1818000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5846000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-728000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9717000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7404,94 +7636,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1091000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1082000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-863000</v>
       </c>
       <c r="F96" s="3">
         <v>-863000</v>
       </c>
       <c r="G96" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-860000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-854000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-855000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-861000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-887000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-917000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-699000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-717000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-730000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-740000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-768000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-767000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-795000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-806000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-670000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-714000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-742000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-778000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-783000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-791000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-788000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-787000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-612000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7576,8 +7812,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7662,8 +7901,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7748,262 +7990,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3528000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2440000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-105000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1855000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12310000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4026000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1579000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12053000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11468000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6798000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6129000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4554000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6493000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14133000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4169000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8294000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7802000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6461000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12239000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10023000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13333000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5459000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4020000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4938000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5441000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3287000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-940000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-973000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-49000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>29000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-203000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-97000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>46000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-116000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-181000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>48000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>129000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>39000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>232000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-34000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-15000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-73000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>75000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-74000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-86000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-228000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>144000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-89000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>230000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>129000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>125000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-418000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1546000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1406000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3635000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10935000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1299000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4744000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5121000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7039000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7777000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5680000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>725000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9963000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13410000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-711000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6543000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10569000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5794000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3896000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7631000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3165000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2133000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1823000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-463000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2036000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1156000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-10022000</v>
       </c>
     </row>
